--- a/Resources/DSA_450_LoveBabbar.xlsx
+++ b/Resources/DSA_450_LoveBabbar.xlsx
@@ -1810,10 +1810,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2154,7 +2154,7 @@
       <c r="B26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2169,7 +2169,7 @@
       <c r="B27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="5" t="s">

--- a/Resources/DSA_450_LoveBabbar.xlsx
+++ b/Resources/DSA_450_LoveBabbar.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
+    <t xml:space="preserve">Find longest consecutive subsequence</t>
   </si>
   <si>
     <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
@@ -1810,10 +1810,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2184,7 +2184,7 @@
       <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2199,7 +2199,7 @@
       <c r="B29" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -8818,7 +8818,7 @@
     <hyperlink ref="C26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
     <hyperlink ref="C27" r:id="rId23" display="Find factorial of a large number"/>
     <hyperlink ref="C28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="C29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="C29" r:id="rId25" display="Find longest consecutive subsequence"/>
     <hyperlink ref="C30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
     <hyperlink ref="C31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
     <hyperlink ref="C32" r:id="rId28" display="Find whether an array is a subset of another array"/>

--- a/Resources/DSA_450_LoveBabbar.xlsx
+++ b/Resources/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="463">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done [yes or no] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Array</t>
@@ -1673,7 +1667,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1685,7 +1679,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1697,7 +1691,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1809,11 +1803,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -1838,28 +1832,22 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1867,14 +1855,12 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1882,14 +1868,12 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1897,14 +1881,12 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1912,14 +1894,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1927,14 +1907,12 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1942,14 +1920,12 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1957,14 +1933,12 @@
         <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1972,14 +1946,12 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1987,14 +1959,12 @@
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2002,14 +1972,12 @@
         <v>11</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2017,14 +1985,12 @@
         <v>12</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2032,14 +1998,12 @@
         <v>13</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2047,14 +2011,12 @@
         <v>14</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2062,14 +2024,12 @@
         <v>15</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2077,14 +2037,12 @@
         <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2092,14 +2050,12 @@
         <v>17</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2107,14 +2063,12 @@
         <v>18</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -2122,14 +2076,12 @@
         <v>19</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -2137,14 +2089,12 @@
         <v>20</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -2152,14 +2102,12 @@
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -2167,14 +2115,12 @@
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -2182,14 +2128,12 @@
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -2197,14 +2141,12 @@
         <v>24</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -2212,14 +2154,12 @@
         <v>25</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -2227,14 +2167,12 @@
         <v>26</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -2242,14 +2180,12 @@
         <v>27</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -2257,14 +2193,12 @@
         <v>28</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -2272,14 +2206,12 @@
         <v>29</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -2287,14 +2219,12 @@
         <v>30</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -2302,14 +2232,12 @@
         <v>31</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -2317,14 +2245,12 @@
         <v>32</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -2332,14 +2258,12 @@
         <v>33</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -2347,14 +2271,12 @@
         <v>34</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -2362,14 +2284,12 @@
         <v>35</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -2377,14 +2297,12 @@
         <v>36</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -2392,9 +2310,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="20"/>
-      <c r="D42" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -2403,9 +2319,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -2413,14 +2327,12 @@
         <v>39</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -2428,14 +2340,12 @@
         <v>40</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -2443,14 +2353,12 @@
         <v>41</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -2458,14 +2366,12 @@
         <v>42</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -2473,14 +2379,12 @@
         <v>43</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -2488,14 +2392,12 @@
         <v>44</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -2503,14 +2405,12 @@
         <v>45</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -2518,14 +2418,12 @@
         <v>46</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -2533,14 +2431,12 @@
         <v>47</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -2548,14 +2444,12 @@
         <v>48</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -2578,14 +2472,12 @@
         <v>51</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -2593,14 +2485,12 @@
         <v>52</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -2608,14 +2498,12 @@
         <v>53</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -2623,14 +2511,12 @@
         <v>54</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -2638,14 +2524,12 @@
         <v>55</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -2653,14 +2537,12 @@
         <v>56</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -2668,14 +2550,12 @@
         <v>57</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -2683,14 +2563,12 @@
         <v>58</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -2698,14 +2576,12 @@
         <v>59</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -2713,14 +2589,12 @@
         <v>60</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -2728,14 +2602,12 @@
         <v>61</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -2743,14 +2615,12 @@
         <v>62</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -2758,14 +2628,12 @@
         <v>63</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -2773,14 +2641,12 @@
         <v>64</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -2788,14 +2654,12 @@
         <v>65</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -2803,14 +2667,12 @@
         <v>66</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -2818,14 +2680,12 @@
         <v>67</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -2833,14 +2693,12 @@
         <v>68</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -2848,14 +2706,12 @@
         <v>69</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -2863,14 +2719,12 @@
         <v>70</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -2878,14 +2732,12 @@
         <v>71</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -2893,14 +2745,12 @@
         <v>72</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -2908,14 +2758,12 @@
         <v>73</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -2923,14 +2771,12 @@
         <v>74</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -2938,14 +2784,12 @@
         <v>75</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -2953,14 +2797,12 @@
         <v>76</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -2968,14 +2810,12 @@
         <v>77</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -2983,14 +2823,12 @@
         <v>78</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -2998,14 +2836,12 @@
         <v>79</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -3013,14 +2849,12 @@
         <v>80</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
@@ -3028,14 +2862,12 @@
         <v>81</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
@@ -3043,14 +2875,12 @@
         <v>82</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
@@ -3058,14 +2888,12 @@
         <v>83</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -3073,14 +2901,12 @@
         <v>84</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
@@ -3088,14 +2914,12 @@
         <v>85</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -3103,14 +2927,12 @@
         <v>86</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
@@ -3118,14 +2940,12 @@
         <v>87</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
@@ -3133,14 +2953,12 @@
         <v>88</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -3148,14 +2966,12 @@
         <v>89</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -3163,14 +2979,12 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -3178,14 +2992,12 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -3193,14 +3005,12 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -3208,14 +3018,12 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -3238,14 +3046,12 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
@@ -3253,14 +3059,12 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
@@ -3268,14 +3072,12 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -3283,14 +3085,12 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -3298,14 +3098,12 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -3313,14 +3111,12 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -3328,14 +3124,12 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -3343,14 +3137,12 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -3358,14 +3150,12 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
@@ -3373,14 +3163,12 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
@@ -3388,14 +3176,12 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -3403,14 +3189,12 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -3418,14 +3202,12 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -3433,14 +3215,12 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -3448,14 +3228,12 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -3463,14 +3241,12 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
@@ -3478,14 +3254,12 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -3493,14 +3267,12 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -3508,14 +3280,12 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -3523,14 +3293,12 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -3538,14 +3306,12 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -3553,14 +3319,12 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -3568,14 +3332,12 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -3583,14 +3345,12 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -3598,14 +3358,12 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -3613,14 +3371,12 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -3628,14 +3384,12 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -3643,14 +3397,12 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -3658,14 +3410,12 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -3673,14 +3423,12 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
@@ -3688,14 +3436,12 @@
         <v>126</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
@@ -3703,14 +3449,12 @@
         <v>127</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
@@ -3718,14 +3462,12 @@
         <v>128</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
@@ -3733,14 +3475,12 @@
         <v>129</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -3748,14 +3488,12 @@
         <v>130</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -3763,14 +3501,12 @@
         <v>131</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
@@ -3792,14 +3528,12 @@
         <v>134</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
@@ -3807,14 +3541,12 @@
         <v>135</v>
       </c>
       <c r="B140" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
@@ -3822,14 +3554,12 @@
         <v>136</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
@@ -3837,14 +3567,12 @@
         <v>137</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
@@ -3852,14 +3580,12 @@
         <v>138</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
@@ -3867,14 +3593,12 @@
         <v>139</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
@@ -3882,14 +3606,12 @@
         <v>140</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D145" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
@@ -3897,14 +3619,12 @@
         <v>141</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D146" s="5"/>
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
@@ -3912,14 +3632,12 @@
         <v>142</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D147" s="5"/>
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -3927,14 +3645,12 @@
         <v>143</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
@@ -3942,14 +3658,12 @@
         <v>144</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -3957,14 +3671,12 @@
         <v>145</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D150" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
@@ -3972,14 +3684,12 @@
         <v>146</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D151" s="5"/>
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
@@ -3987,14 +3697,12 @@
         <v>147</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D152" s="5"/>
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
@@ -4002,14 +3710,12 @@
         <v>148</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D153" s="5"/>
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
@@ -4017,14 +3723,12 @@
         <v>149</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D154" s="5"/>
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
@@ -4032,14 +3736,12 @@
         <v>150</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
@@ -4047,14 +3749,12 @@
         <v>151</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
@@ -4062,14 +3762,12 @@
         <v>152</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
@@ -4077,14 +3775,12 @@
         <v>153</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D158" s="5"/>
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
@@ -4092,14 +3788,12 @@
         <v>154</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D159" s="5"/>
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
@@ -4107,14 +3801,12 @@
         <v>155</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D160" s="5"/>
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
@@ -4122,14 +3814,12 @@
         <v>156</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
@@ -4137,14 +3827,12 @@
         <v>157</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D162" s="5"/>
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
@@ -4152,14 +3840,12 @@
         <v>158</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
@@ -4167,14 +3853,12 @@
         <v>159</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
@@ -4182,14 +3866,12 @@
         <v>160</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
@@ -4197,14 +3879,12 @@
         <v>161</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
@@ -4212,14 +3892,12 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D167" s="5"/>
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
@@ -4227,14 +3905,12 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D168" s="5"/>
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
@@ -4242,14 +3918,12 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D169" s="5"/>
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
@@ -4257,14 +3931,12 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D170" s="5"/>
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
@@ -4272,14 +3944,12 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D171" s="5"/>
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
@@ -4287,14 +3957,12 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D172" s="5"/>
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
@@ -4302,14 +3970,12 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D173" s="5"/>
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
@@ -4317,14 +3983,12 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D174" s="5"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
@@ -4346,14 +4010,12 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D177" s="5"/>
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -4361,14 +4023,12 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C178" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C178" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D178" s="5"/>
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
@@ -4376,14 +4036,12 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D179" s="5"/>
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
@@ -4391,14 +4049,12 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D180" s="5"/>
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
@@ -4406,14 +4062,12 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D181" s="5"/>
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
@@ -4421,14 +4075,12 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
@@ -4436,14 +4088,12 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
@@ -4451,14 +4101,12 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
@@ -4466,14 +4114,12 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D185" s="5"/>
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
@@ -4481,14 +4127,12 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D186" s="5"/>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
@@ -4496,14 +4140,12 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D187" s="5"/>
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
@@ -4511,14 +4153,12 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D188" s="5"/>
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
@@ -4526,14 +4166,12 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D189" s="5"/>
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
@@ -4541,14 +4179,12 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D190" s="5"/>
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
@@ -4556,14 +4192,12 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D191" s="5"/>
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
@@ -4571,14 +4205,12 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D192" s="5"/>
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
@@ -4586,14 +4218,12 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D193" s="5"/>
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
@@ -4601,14 +4231,12 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D194" s="5"/>
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
@@ -4616,14 +4244,12 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D195" s="5"/>
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
@@ -4631,14 +4257,12 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D196" s="5"/>
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
@@ -4646,14 +4270,12 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D197" s="5"/>
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
@@ -4661,14 +4283,12 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D198" s="5"/>
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
@@ -4676,14 +4296,12 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D199" s="5"/>
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
@@ -4691,14 +4309,12 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D200" s="5"/>
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
@@ -4706,14 +4322,12 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D201" s="5"/>
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
@@ -4721,14 +4335,12 @@
         <v>197</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D202" s="5"/>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
@@ -4736,14 +4348,12 @@
         <v>198</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D203" s="5"/>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
@@ -4751,14 +4361,12 @@
         <v>199</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D204" s="5"/>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
@@ -4766,14 +4374,12 @@
         <v>200</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D205" s="5"/>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
@@ -4781,14 +4387,12 @@
         <v>201</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D206" s="5"/>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
@@ -4796,14 +4400,12 @@
         <v>202</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D207" s="5"/>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
@@ -4811,14 +4413,12 @@
         <v>203</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D208" s="5"/>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
@@ -4826,14 +4426,12 @@
         <v>204</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D209" s="5"/>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
@@ -4841,14 +4439,12 @@
         <v>205</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D210" s="5"/>
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
@@ -4856,14 +4452,12 @@
         <v>206</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D211" s="5"/>
     </row>
     <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
@@ -4889,14 +4483,12 @@
         <v>209</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D214" s="5"/>
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
@@ -4904,14 +4496,12 @@
         <v>210</v>
       </c>
       <c r="B215" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C215" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D215" s="5"/>
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
@@ -4919,14 +4509,12 @@
         <v>211</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
@@ -4934,14 +4522,12 @@
         <v>212</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
@@ -4949,14 +4535,12 @@
         <v>213</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D218" s="5"/>
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
@@ -4964,14 +4548,12 @@
         <v>214</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D219" s="5"/>
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
@@ -4979,14 +4561,12 @@
         <v>215</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D220" s="5"/>
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
@@ -4994,14 +4574,12 @@
         <v>216</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D221" s="5"/>
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
@@ -5009,14 +4587,12 @@
         <v>217</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D222" s="5"/>
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
@@ -5024,14 +4600,12 @@
         <v>218</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D223" s="5"/>
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
@@ -5039,14 +4613,12 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D224" s="5"/>
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
@@ -5054,14 +4626,12 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D225" s="5"/>
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
@@ -5069,14 +4639,12 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D226" s="5"/>
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
@@ -5084,14 +4652,12 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D227" s="5"/>
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
@@ -5099,14 +4665,12 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
@@ -5114,14 +4678,12 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D229" s="5"/>
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
@@ -5129,14 +4691,12 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D230" s="5"/>
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
@@ -5144,14 +4704,12 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D231" s="5"/>
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
@@ -5159,14 +4717,12 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D232" s="5"/>
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
@@ -5174,14 +4730,12 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D233" s="5"/>
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
@@ -5189,14 +4743,12 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D234" s="5"/>
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
@@ -5204,14 +4756,12 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D235" s="5"/>
     </row>
     <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
@@ -5235,14 +4785,12 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D238" s="5"/>
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
@@ -5250,14 +4798,12 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C239" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C239" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D239" s="5"/>
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
@@ -5265,14 +4811,12 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D240" s="5"/>
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
@@ -5280,14 +4824,12 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D241" s="5"/>
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
@@ -5295,14 +4837,12 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D242" s="5"/>
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
@@ -5310,14 +4850,12 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D243" s="5"/>
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
@@ -5325,14 +4863,12 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D244" s="5"/>
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
@@ -5340,14 +4876,12 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D245" s="5"/>
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
@@ -5355,14 +4889,12 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D246" s="5"/>
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
@@ -5370,14 +4902,12 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D247" s="5"/>
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
@@ -5385,14 +4915,12 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D248" s="5"/>
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
@@ -5400,14 +4928,12 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D249" s="5"/>
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
@@ -5415,14 +4941,12 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D250" s="5"/>
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
@@ -5430,14 +4954,12 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D251" s="5"/>
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
@@ -5445,14 +4967,12 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D252" s="5"/>
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
@@ -5460,14 +4980,12 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D253" s="5"/>
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
@@ -5475,14 +4993,12 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D254" s="5"/>
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
@@ -5490,14 +5006,12 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
@@ -5505,14 +5019,12 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D256" s="5"/>
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
@@ -5520,14 +5032,12 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D257" s="5"/>
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
@@ -5535,14 +5045,12 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D258" s="5"/>
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
@@ -5550,14 +5058,12 @@
         <v>254</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D259" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
@@ -5565,14 +5071,12 @@
         <v>255</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D260" s="5"/>
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
@@ -5580,14 +5084,12 @@
         <v>256</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D261" s="5"/>
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
@@ -5595,14 +5097,12 @@
         <v>257</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D262" s="5"/>
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
@@ -5610,14 +5110,12 @@
         <v>258</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D263" s="5"/>
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
@@ -5625,14 +5123,12 @@
         <v>259</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D264" s="5"/>
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
@@ -5640,14 +5136,12 @@
         <v>260</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D265" s="5"/>
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
@@ -5655,14 +5149,12 @@
         <v>261</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D266" s="5"/>
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
@@ -5670,14 +5162,12 @@
         <v>262</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="D267" s="5"/>
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
@@ -5685,14 +5175,12 @@
         <v>263</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="D268" s="5"/>
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
@@ -5700,14 +5188,12 @@
         <v>264</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D269" s="5"/>
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
@@ -5715,14 +5201,12 @@
         <v>265</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D270" s="5"/>
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
@@ -5730,14 +5214,12 @@
         <v>266</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D271" s="5"/>
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
@@ -5745,14 +5227,12 @@
         <v>267</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D272" s="5"/>
     </row>
     <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
@@ -5776,14 +5256,12 @@
         <v>270</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D275" s="5"/>
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
@@ -5791,14 +5269,12 @@
         <v>271</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C276" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C276" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D276" s="5"/>
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
@@ -5806,14 +5282,12 @@
         <v>272</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D277" s="5"/>
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
@@ -5821,14 +5295,12 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D278" s="5"/>
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
@@ -5836,14 +5308,12 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D279" s="5"/>
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
@@ -5851,14 +5321,12 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D280" s="5"/>
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
@@ -5866,14 +5334,12 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D281" s="5"/>
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
@@ -5881,14 +5347,12 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D282" s="5"/>
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
@@ -5896,14 +5360,12 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D283" s="5"/>
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
@@ -5911,14 +5373,12 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D284" s="5"/>
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
@@ -5926,14 +5386,12 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D285" s="5"/>
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
@@ -5941,14 +5399,12 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D286" s="5"/>
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
@@ -5956,14 +5412,12 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D287" s="5"/>
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
@@ -5971,14 +5425,12 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D288" s="5"/>
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
@@ -5986,14 +5438,12 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D289" s="5"/>
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
@@ -6001,14 +5451,12 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D290" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D290" s="5"/>
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
@@ -6016,14 +5464,12 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D291" s="5"/>
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
@@ -6031,14 +5477,12 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D292" s="5"/>
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
@@ -6046,14 +5490,12 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D293" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="D293" s="5"/>
     </row>
     <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
@@ -6077,14 +5519,12 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D296" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="D296" s="5"/>
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
@@ -6092,14 +5532,12 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C297" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="C297" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D297" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D297" s="5"/>
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
@@ -6107,14 +5545,12 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D298" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D298" s="5"/>
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
@@ -6122,14 +5558,12 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D299" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D299" s="5"/>
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
@@ -6137,14 +5571,12 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D300" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D300" s="5"/>
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
@@ -6152,14 +5584,12 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D301" s="5"/>
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
@@ -6167,14 +5597,12 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D302" s="5"/>
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
@@ -6182,14 +5610,12 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D303" s="5"/>
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
@@ -6197,14 +5623,12 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D304" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D304" s="5"/>
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
@@ -6212,14 +5636,12 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D305" s="5"/>
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
@@ -6227,14 +5649,12 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D306" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D306" s="5"/>
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
@@ -6242,14 +5662,12 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D307" s="5"/>
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
@@ -6257,14 +5675,12 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D308" s="5"/>
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
@@ -6272,14 +5688,12 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D309" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D309" s="5"/>
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
@@ -6287,14 +5701,12 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D310" s="5"/>
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
@@ -6302,14 +5714,12 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D311" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D311" s="5"/>
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
@@ -6317,14 +5727,12 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D312" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D312" s="5"/>
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
@@ -6332,14 +5740,12 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D313" s="5"/>
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
@@ -6347,14 +5753,12 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="D314" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D314" s="5"/>
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
@@ -6362,14 +5766,12 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D315" s="5"/>
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
@@ -6377,14 +5779,12 @@
         <v>311</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D316" s="5"/>
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
@@ -6392,14 +5792,12 @@
         <v>312</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="D317" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D317" s="5"/>
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
@@ -6407,14 +5805,12 @@
         <v>313</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D318" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D318" s="5"/>
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
@@ -6422,14 +5818,12 @@
         <v>314</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="D319" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D319" s="5"/>
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
@@ -6437,14 +5831,12 @@
         <v>315</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D320" s="5"/>
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
@@ -6452,14 +5844,12 @@
         <v>316</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D321" s="5"/>
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
@@ -6467,14 +5857,12 @@
         <v>317</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="D322" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D322" s="5"/>
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
@@ -6482,14 +5870,12 @@
         <v>318</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D323" s="5"/>
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
@@ -6497,14 +5883,12 @@
         <v>319</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D324" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D324" s="5"/>
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
@@ -6512,14 +5896,12 @@
         <v>320</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D325" s="5"/>
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
@@ -6527,14 +5909,12 @@
         <v>321</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D326" s="5"/>
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
@@ -6542,14 +5922,12 @@
         <v>322</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D327" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D327" s="5"/>
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
@@ -6557,14 +5935,12 @@
         <v>323</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D328" s="5"/>
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
@@ -6572,14 +5948,12 @@
         <v>324</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D329" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D329" s="5"/>
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
@@ -6587,14 +5961,12 @@
         <v>325</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D330" s="5"/>
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
@@ -6602,14 +5974,12 @@
         <v>326</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="D331" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D331" s="5"/>
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
@@ -6617,14 +5987,12 @@
         <v>327</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="D332" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D332" s="5"/>
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
@@ -6632,14 +6000,12 @@
         <v>328</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D333" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D333" s="5"/>
     </row>
     <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
@@ -6663,14 +6029,12 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D336" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D336" s="5"/>
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
@@ -6678,14 +6042,12 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C337" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C337" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D337" s="5"/>
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
@@ -6693,14 +6055,12 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D338" s="5"/>
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
@@ -6708,14 +6068,12 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D339" s="5"/>
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
@@ -6723,14 +6081,12 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D340" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D340" s="5"/>
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
@@ -6738,14 +6094,12 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="D341" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D341" s="5"/>
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
@@ -6753,14 +6107,12 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="D342" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D342" s="5"/>
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
@@ -6768,14 +6120,12 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D343" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D343" s="5"/>
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
@@ -6783,14 +6133,12 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D344" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D344" s="5"/>
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
@@ -6798,14 +6146,12 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C345" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D345" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D345" s="5"/>
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
@@ -6813,14 +6159,12 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C346" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D346" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="D346" s="5"/>
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
@@ -6828,14 +6172,12 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D347" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D347" s="5"/>
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
@@ -6843,14 +6185,12 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D348" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="D348" s="5"/>
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
@@ -6858,14 +6198,12 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="D349" s="5"/>
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
@@ -6873,14 +6211,12 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="D350" s="5"/>
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
@@ -6888,14 +6224,12 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="D351" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="D351" s="5"/>
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
@@ -6903,14 +6237,12 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C352" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="D352" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="D352" s="5"/>
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
@@ -6918,14 +6250,12 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C353" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D353" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D353" s="5"/>
     </row>
     <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
@@ -6949,14 +6279,12 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D356" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D356" s="5"/>
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
@@ -6964,14 +6292,12 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C357" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="C357" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="D357" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D357" s="5"/>
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
@@ -6979,14 +6305,12 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="D358" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D358" s="5"/>
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
@@ -6994,14 +6318,12 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D359" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="D359" s="5"/>
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
@@ -7009,14 +6331,12 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="D360" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D360" s="5"/>
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
@@ -7024,14 +6344,12 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D361" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D361" s="5"/>
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
@@ -7039,14 +6357,12 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D362" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D362" s="5"/>
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
@@ -7054,14 +6370,12 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="D363" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D363" s="5"/>
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
@@ -7069,14 +6383,12 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D364" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="D364" s="5"/>
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="n">
@@ -7084,14 +6396,12 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D365" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D365" s="5"/>
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="n">
@@ -7099,14 +6409,12 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="D366" s="5"/>
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
@@ -7114,14 +6422,12 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="D367" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D367" s="5"/>
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="n">
@@ -7129,14 +6435,12 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="D368" s="5"/>
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="n">
@@ -7144,14 +6448,12 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C369" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D369" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="D369" s="5"/>
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="n">
@@ -7159,14 +6461,12 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D370" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="D370" s="5"/>
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
@@ -7174,14 +6474,12 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C371" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="D371" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="D371" s="5"/>
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
@@ -7189,14 +6487,12 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="D372" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D372" s="5"/>
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
@@ -7204,14 +6500,12 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D373" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D373" s="5"/>
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
@@ -7219,14 +6513,12 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C374" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="D374" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D374" s="5"/>
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
@@ -7234,14 +6526,12 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C375" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D375" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="D375" s="5"/>
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
@@ -7249,14 +6539,12 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C376" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D376" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="D376" s="5"/>
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="n">
@@ -7264,14 +6552,12 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C377" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D377" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="D377" s="5"/>
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
@@ -7279,14 +6565,12 @@
         <v>373</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C378" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D378" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="D378" s="5"/>
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
@@ -7294,14 +6578,12 @@
         <v>374</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C379" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D379" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D379" s="5"/>
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
@@ -7309,14 +6591,12 @@
         <v>375</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C380" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D380" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D380" s="5"/>
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="n">
@@ -7324,14 +6604,12 @@
         <v>376</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C381" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="D381" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="D381" s="5"/>
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
@@ -7339,14 +6617,12 @@
         <v>377</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C382" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D382" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D382" s="5"/>
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
@@ -7354,14 +6630,12 @@
         <v>378</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C383" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D383" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="D383" s="5"/>
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
@@ -7369,14 +6643,12 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C384" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D384" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D384" s="5"/>
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
@@ -7384,14 +6656,12 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D385" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D385" s="5"/>
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="n">
@@ -7399,14 +6669,12 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="D386" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D386" s="5"/>
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="n">
@@ -7414,14 +6682,12 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D387" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="D387" s="5"/>
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="n">
@@ -7429,14 +6695,12 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="D388" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D388" s="5"/>
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
@@ -7444,14 +6708,12 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="D389" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D389" s="5"/>
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="n">
@@ -7459,14 +6721,12 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="D390" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D390" s="5"/>
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="n">
@@ -7474,14 +6734,12 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C391" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="D391" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D391" s="5"/>
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="n">
@@ -7489,14 +6747,12 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C392" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="D392" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D392" s="5"/>
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="n">
@@ -7504,14 +6760,12 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C393" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="D393" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D393" s="5"/>
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="n">
@@ -7519,14 +6773,12 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="D394" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D394" s="5"/>
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
@@ -7534,14 +6786,12 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D395" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="D395" s="5"/>
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
@@ -7549,14 +6799,12 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="D396" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D396" s="5"/>
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="n">
@@ -7564,14 +6812,12 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D397" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="D397" s="5"/>
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="n">
@@ -7579,14 +6825,12 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C398" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="D398" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="D398" s="5"/>
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="n">
@@ -7594,14 +6838,12 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D399" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="D399" s="5"/>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
@@ -7625,14 +6867,12 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D402" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D402" s="5"/>
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
@@ -7640,14 +6880,12 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C403" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C403" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="D403" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D403" s="5"/>
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="n">
@@ -7655,14 +6893,12 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="D404" s="5"/>
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="n">
@@ -7670,14 +6906,12 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D405" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D405" s="5"/>
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="n">
@@ -7685,14 +6919,12 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="D406" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="D406" s="5"/>
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="n">
@@ -7700,14 +6932,12 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C407" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D407" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="D407" s="5"/>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
@@ -7731,14 +6961,12 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D410" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D410" s="5"/>
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="n">
@@ -7746,14 +6974,12 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C411" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C411" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D411" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D411" s="5"/>
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="n">
@@ -7761,14 +6987,12 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="D412" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="D412" s="5"/>
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="n">
@@ -7776,14 +7000,12 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C413" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="D413" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D413" s="5"/>
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="n">
@@ -7791,14 +7013,12 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C414" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="D414" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="D414" s="5"/>
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="n">
@@ -7806,14 +7026,12 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C415" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D415" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D415" s="5"/>
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="n">
@@ -7821,14 +7039,12 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C416" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D416" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D416" s="5"/>
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="n">
@@ -7836,14 +7052,12 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C417" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D417" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D417" s="5"/>
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="n">
@@ -7851,14 +7065,12 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C418" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="D418" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D418" s="5"/>
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="n">
@@ -7866,14 +7078,12 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C419" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="D419" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="D419" s="5"/>
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="n">
@@ -7881,14 +7091,12 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C420" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="D420" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="D420" s="5"/>
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="n">
@@ -7896,14 +7104,12 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D421" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="D421" s="5"/>
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="n">
@@ -7911,14 +7117,12 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C422" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="D422" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="D422" s="5"/>
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="n">
@@ -7926,14 +7130,12 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C423" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D423" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D423" s="5"/>
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="n">
@@ -7941,14 +7143,12 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C424" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D424" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D424" s="5"/>
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="n">
@@ -7956,14 +7156,12 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C425" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="D425" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D425" s="5"/>
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="n">
@@ -7971,14 +7169,12 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C426" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D426" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="D426" s="5"/>
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="n">
@@ -7986,14 +7182,12 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C427" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D427" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="D427" s="5"/>
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="n">
@@ -8001,14 +7195,12 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C428" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D428" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D428" s="5"/>
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="n">
@@ -8016,14 +7208,12 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C429" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D429" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="D429" s="5"/>
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="n">
@@ -8031,14 +7221,12 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C430" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="D430" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D430" s="5"/>
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="n">
@@ -8046,14 +7234,12 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C431" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D431" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="D431" s="5"/>
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="n">
@@ -8061,14 +7247,12 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C432" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D432" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D432" s="5"/>
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="n">
@@ -8076,14 +7260,12 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C433" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="D433" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="D433" s="5"/>
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="n">
@@ -8091,14 +7273,12 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C434" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="D434" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="D434" s="5"/>
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="n">
@@ -8106,14 +7286,12 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C435" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D435" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="D435" s="5"/>
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="n">
@@ -8121,14 +7299,12 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C436" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="D436" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D436" s="5"/>
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="n">
@@ -8136,14 +7312,12 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C437" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="D437" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D437" s="5"/>
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="n">
@@ -8151,14 +7325,12 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C438" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="D438" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D438" s="5"/>
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="n">
@@ -8166,14 +7338,12 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C439" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="D439" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="D439" s="5"/>
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="n">
@@ -8181,14 +7351,12 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C440" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="D440" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D440" s="5"/>
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="n">
@@ -8196,14 +7364,12 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C441" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="D441" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D441" s="5"/>
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="n">
@@ -8211,14 +7377,12 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C442" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="D442" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="D442" s="5"/>
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="n">
@@ -8226,14 +7390,12 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C443" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="D443" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="D443" s="5"/>
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="n">
@@ -8241,14 +7403,12 @@
         <v>439</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C444" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D444" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="D444" s="5"/>
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="n">
@@ -8256,14 +7416,12 @@
         <v>440</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C445" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="D445" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D445" s="5"/>
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="n">
@@ -8271,14 +7429,12 @@
         <v>441</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C446" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="D446" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D446" s="5"/>
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="n">
@@ -8286,14 +7442,12 @@
         <v>442</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C447" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="D447" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D447" s="5"/>
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="n">
@@ -8301,14 +7455,12 @@
         <v>443</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C448" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D448" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D448" s="5"/>
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="n">
@@ -8316,14 +7468,12 @@
         <v>444</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C449" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="D449" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="D449" s="5"/>
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="n">
@@ -8331,14 +7481,12 @@
         <v>445</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C450" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="D450" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="D450" s="5"/>
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="n">
@@ -8346,14 +7494,12 @@
         <v>446</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C451" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D451" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="D451" s="5"/>
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="n">
@@ -8361,14 +7507,12 @@
         <v>447</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C452" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D452" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D452" s="5"/>
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="n">
@@ -8376,14 +7520,12 @@
         <v>448</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C453" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="D453" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="D453" s="5"/>
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="n">
@@ -8391,14 +7533,12 @@
         <v>449</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C454" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D454" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D454" s="5"/>
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="n">
@@ -8406,14 +7546,12 @@
         <v>450</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C455" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D455" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D455" s="5"/>
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="n">
@@ -8421,14 +7559,12 @@
         <v>451</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C456" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="D456" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D456" s="5"/>
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="n">
@@ -8436,14 +7572,12 @@
         <v>452</v>
       </c>
       <c r="B457" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C457" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="D457" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="D457" s="5"/>
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="n">
@@ -8451,14 +7585,12 @@
         <v>453</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C458" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="D458" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D458" s="5"/>
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="n">
@@ -8466,14 +7598,12 @@
         <v>454</v>
       </c>
       <c r="B459" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C459" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="D459" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="D459" s="5"/>
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="n">
@@ -8481,14 +7611,12 @@
         <v>455</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C460" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D460" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D460" s="5"/>
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="n">
@@ -8496,14 +7624,12 @@
         <v>456</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C461" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D461" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="D461" s="5"/>
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="n">
@@ -8511,14 +7637,12 @@
         <v>457</v>
       </c>
       <c r="B462" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C462" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D462" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D462" s="5"/>
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="n">
@@ -8526,14 +7650,12 @@
         <v>458</v>
       </c>
       <c r="B463" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C463" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D463" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D463" s="5"/>
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="n">
@@ -8541,14 +7663,12 @@
         <v>459</v>
       </c>
       <c r="B464" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C464" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D464" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D464" s="5"/>
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="n">
@@ -8556,14 +7676,12 @@
         <v>460</v>
       </c>
       <c r="B465" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C465" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="D465" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D465" s="5"/>
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="n">
@@ -8571,14 +7689,12 @@
         <v>461</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C466" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="D466" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="D466" s="5"/>
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="n">
@@ -8586,14 +7702,12 @@
         <v>462</v>
       </c>
       <c r="B467" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C467" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="D467" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D467" s="5"/>
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="n">
@@ -8601,14 +7715,12 @@
         <v>463</v>
       </c>
       <c r="B468" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C468" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="D468" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D468" s="5"/>
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="n">
@@ -8616,14 +7728,12 @@
         <v>464</v>
       </c>
       <c r="B469" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C469" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="D469" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D469" s="5"/>
     </row>
     <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="n">
@@ -8648,14 +7758,12 @@
         <v>467</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C472" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D472" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="D472" s="5"/>
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="n">
@@ -8663,14 +7771,12 @@
         <v>468</v>
       </c>
       <c r="B473" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C473" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="C473" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D473" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D473" s="5"/>
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="n">
@@ -8678,14 +7784,12 @@
         <v>469</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C474" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="D474" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D474" s="5"/>
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="n">
@@ -8693,14 +7797,12 @@
         <v>470</v>
       </c>
       <c r="B475" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C475" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="D475" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="D475" s="5"/>
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="n">
@@ -8708,14 +7810,12 @@
         <v>471</v>
       </c>
       <c r="B476" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C476" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D476" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="D476" s="5"/>
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="n">
@@ -8723,14 +7823,12 @@
         <v>472</v>
       </c>
       <c r="B477" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C477" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="D477" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="D477" s="5"/>
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="n">
@@ -8738,14 +7836,12 @@
         <v>473</v>
       </c>
       <c r="B478" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C478" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="D478" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D478" s="5"/>
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="n">
@@ -8753,14 +7849,12 @@
         <v>474</v>
       </c>
       <c r="B479" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C479" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="D479" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D479" s="5"/>
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="n">
@@ -8768,14 +7862,12 @@
         <v>475</v>
       </c>
       <c r="B480" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C480" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="D480" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="D480" s="5"/>
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="n">
@@ -8783,14 +7875,12 @@
         <v>476</v>
       </c>
       <c r="B481" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D481" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="D481" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Resources/DSA_450_LoveBabbar.xlsx
+++ b/Resources/DSA_450_LoveBabbar.xlsx
@@ -1807,7 +1807,7 @@
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2169,7 +2169,7 @@
       <c r="B31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="5"/>

--- a/Resources/DSA_450_LoveBabbar.xlsx
+++ b/Resources/DSA_450_LoveBabbar.xlsx
@@ -1804,10 +1804,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2182,7 +2182,7 @@
       <c r="B32" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="5"/>

--- a/Resources/DSA_450_LoveBabbar.xlsx
+++ b/Resources/DSA_450_LoveBabbar.xlsx
@@ -1711,11 +1711,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1803,11 +1803,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -1987,7 +1987,7 @@
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="5"/>
@@ -2195,7 +2195,7 @@
       <c r="B33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="5"/>
@@ -2208,7 +2208,7 @@
       <c r="B34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="5"/>
@@ -2221,7 +2221,7 @@
       <c r="B35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="5"/>
@@ -2234,7 +2234,7 @@
       <c r="B36" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="5"/>
@@ -2247,7 +2247,7 @@
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="5"/>
@@ -2260,7 +2260,7 @@
       <c r="B38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="5"/>
@@ -2273,7 +2273,7 @@
       <c r="B39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="5"/>
@@ -2286,7 +2286,7 @@
       <c r="B40" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="5"/>
@@ -2299,7 +2299,7 @@
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="5"/>
@@ -2309,7 +2309,7 @@
         <f aca="false">A41 + 1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,7 +2318,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="20"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,7 +2329,7 @@
       <c r="B44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="5"/>
@@ -2342,7 +2342,7 @@
       <c r="B45" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="5"/>
@@ -2355,7 +2355,7 @@
       <c r="B46" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="5"/>
@@ -2368,7 +2368,7 @@
       <c r="B47" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="5"/>
@@ -2381,7 +2381,7 @@
       <c r="B48" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="5"/>
@@ -2394,7 +2394,7 @@
       <c r="B49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="5"/>
@@ -2407,7 +2407,7 @@
       <c r="B50" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="5"/>
@@ -2420,7 +2420,7 @@
       <c r="B51" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="5"/>
@@ -2433,7 +2433,7 @@
       <c r="B52" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="5"/>
@@ -2446,7 +2446,7 @@
       <c r="B53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="5"/>
@@ -2463,7 +2463,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="15"/>
-      <c r="C55" s="20"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,7 +2474,7 @@
       <c r="B56" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="5"/>
@@ -2487,7 +2487,7 @@
       <c r="B57" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="5"/>
@@ -2500,7 +2500,7 @@
       <c r="B58" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="5"/>
@@ -2513,7 +2513,7 @@
       <c r="B59" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D59" s="5"/>
@@ -2526,7 +2526,7 @@
       <c r="B60" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="5"/>
@@ -2539,7 +2539,7 @@
       <c r="B61" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="5"/>
@@ -2552,7 +2552,7 @@
       <c r="B62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D62" s="5"/>
@@ -2565,7 +2565,7 @@
       <c r="B63" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="5"/>
@@ -2578,7 +2578,7 @@
       <c r="B64" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="5"/>
@@ -2591,7 +2591,7 @@
       <c r="B65" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D65" s="5"/>
@@ -2604,7 +2604,7 @@
       <c r="B66" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D66" s="5"/>
@@ -2617,7 +2617,7 @@
       <c r="B67" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D67" s="5"/>
@@ -2630,7 +2630,7 @@
       <c r="B68" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D68" s="5"/>
@@ -2643,7 +2643,7 @@
       <c r="B69" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D69" s="5"/>
@@ -2656,7 +2656,7 @@
       <c r="B70" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D70" s="5"/>
@@ -2669,7 +2669,7 @@
       <c r="B71" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="5"/>
@@ -2682,7 +2682,7 @@
       <c r="B72" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D72" s="5"/>
@@ -2695,7 +2695,7 @@
       <c r="B73" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D73" s="5"/>
@@ -2708,7 +2708,7 @@
       <c r="B74" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D74" s="5"/>
@@ -2721,7 +2721,7 @@
       <c r="B75" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D75" s="5"/>
@@ -2734,7 +2734,7 @@
       <c r="B76" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="5"/>
@@ -2747,7 +2747,7 @@
       <c r="B77" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="5"/>
@@ -2760,7 +2760,7 @@
       <c r="B78" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D78" s="5"/>
@@ -2773,7 +2773,7 @@
       <c r="B79" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="5"/>
@@ -2786,7 +2786,7 @@
       <c r="B80" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D80" s="5"/>
@@ -2799,7 +2799,7 @@
       <c r="B81" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D81" s="5"/>
@@ -2812,7 +2812,7 @@
       <c r="B82" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D82" s="5"/>
@@ -2825,7 +2825,7 @@
       <c r="B83" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D83" s="5"/>
@@ -2838,7 +2838,7 @@
       <c r="B84" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="5"/>
@@ -2851,7 +2851,7 @@
       <c r="B85" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D85" s="5"/>
@@ -2864,7 +2864,7 @@
       <c r="B86" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D86" s="5"/>
@@ -2877,7 +2877,7 @@
       <c r="B87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D87" s="5"/>
@@ -2890,7 +2890,7 @@
       <c r="B88" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="5"/>
@@ -2903,7 +2903,7 @@
       <c r="B89" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D89" s="5"/>
@@ -2916,7 +2916,7 @@
       <c r="B90" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D90" s="5"/>
@@ -2929,7 +2929,7 @@
       <c r="B91" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D91" s="5"/>
@@ -2942,7 +2942,7 @@
       <c r="B92" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D92" s="5"/>
@@ -2955,7 +2955,7 @@
       <c r="B93" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D93" s="5"/>
@@ -2968,7 +2968,7 @@
       <c r="B94" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D94" s="5"/>
@@ -2981,7 +2981,7 @@
       <c r="B95" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D95" s="5"/>
@@ -2994,7 +2994,7 @@
       <c r="B96" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D96" s="5"/>
@@ -3007,7 +3007,7 @@
       <c r="B97" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D97" s="5"/>
@@ -3020,7 +3020,7 @@
       <c r="B98" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="5"/>
@@ -3037,7 +3037,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="15"/>
-      <c r="C100" s="20"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,7 +3048,7 @@
       <c r="B101" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="20" t="s">
         <v>97</v>
       </c>
       <c r="D101" s="5"/>
@@ -3061,7 +3061,7 @@
       <c r="B102" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D102" s="5"/>
@@ -3074,7 +3074,7 @@
       <c r="B103" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="20" t="s">
         <v>99</v>
       </c>
       <c r="D103" s="5"/>
@@ -3087,7 +3087,7 @@
       <c r="B104" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="20" t="s">
         <v>100</v>
       </c>
       <c r="D104" s="5"/>
@@ -3100,7 +3100,7 @@
       <c r="B105" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D105" s="5"/>
@@ -3113,7 +3113,7 @@
       <c r="B106" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D106" s="5"/>
@@ -3126,7 +3126,7 @@
       <c r="B107" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D107" s="5"/>
@@ -3139,7 +3139,7 @@
       <c r="B108" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="20" t="s">
         <v>104</v>
       </c>
       <c r="D108" s="5"/>
@@ -3152,7 +3152,7 @@
       <c r="B109" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D109" s="5"/>
@@ -3165,7 +3165,7 @@
       <c r="B110" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D110" s="5"/>
@@ -3178,7 +3178,7 @@
       <c r="B111" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D111" s="5"/>
@@ -3191,7 +3191,7 @@
       <c r="B112" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D112" s="5"/>
@@ -3204,7 +3204,7 @@
       <c r="B113" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D113" s="5"/>
@@ -3217,7 +3217,7 @@
       <c r="B114" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D114" s="5"/>
@@ -3230,7 +3230,7 @@
       <c r="B115" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D115" s="5"/>
@@ -3243,7 +3243,7 @@
       <c r="B116" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D116" s="5"/>
@@ -3256,7 +3256,7 @@
       <c r="B117" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D117" s="5"/>
@@ -3269,7 +3269,7 @@
       <c r="B118" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D118" s="5"/>
@@ -3282,7 +3282,7 @@
       <c r="B119" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D119" s="5"/>
@@ -3295,7 +3295,7 @@
       <c r="B120" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="20" t="s">
         <v>116</v>
       </c>
       <c r="D120" s="5"/>
@@ -3308,7 +3308,7 @@
       <c r="B121" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D121" s="5"/>
@@ -3321,7 +3321,7 @@
       <c r="B122" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="5"/>
@@ -3334,7 +3334,7 @@
       <c r="B123" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="20" t="s">
         <v>119</v>
       </c>
       <c r="D123" s="5"/>
@@ -3347,7 +3347,7 @@
       <c r="B124" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="20" t="s">
         <v>120</v>
       </c>
       <c r="D124" s="5"/>
@@ -3360,7 +3360,7 @@
       <c r="B125" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D125" s="5"/>
@@ -3373,7 +3373,7 @@
       <c r="B126" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D126" s="5"/>
@@ -3386,7 +3386,7 @@
       <c r="B127" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D127" s="5"/>
@@ -3399,7 +3399,7 @@
       <c r="B128" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="20" t="s">
         <v>124</v>
       </c>
       <c r="D128" s="5"/>
@@ -3412,7 +3412,7 @@
       <c r="B129" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="20" t="s">
         <v>125</v>
       </c>
       <c r="D129" s="5"/>
@@ -3425,7 +3425,7 @@
       <c r="B130" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D130" s="5"/>
@@ -3438,7 +3438,7 @@
       <c r="B131" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="20" t="s">
         <v>127</v>
       </c>
       <c r="D131" s="5"/>
@@ -3451,7 +3451,7 @@
       <c r="B132" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="20" t="s">
         <v>128</v>
       </c>
       <c r="D132" s="5"/>
@@ -3464,7 +3464,7 @@
       <c r="B133" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="20" t="s">
         <v>129</v>
       </c>
       <c r="D133" s="5"/>
@@ -3477,7 +3477,7 @@
       <c r="B134" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D134" s="5"/>
@@ -3490,7 +3490,7 @@
       <c r="B135" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="20" t="s">
         <v>131</v>
       </c>
       <c r="D135" s="5"/>
@@ -3503,7 +3503,7 @@
       <c r="B136" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D136" s="5"/>
@@ -3519,7 +3519,7 @@
         <f aca="false">A137 + 1</f>
         <v>133</v>
       </c>
-      <c r="C138" s="20"/>
+      <c r="C138" s="19"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,7 +3530,7 @@
       <c r="B139" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D139" s="5"/>
@@ -3543,7 +3543,7 @@
       <c r="B140" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="20" t="s">
         <v>135</v>
       </c>
       <c r="D140" s="5"/>
@@ -3556,7 +3556,7 @@
       <c r="B141" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D141" s="5"/>
@@ -3569,7 +3569,7 @@
       <c r="B142" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="20" t="s">
         <v>137</v>
       </c>
       <c r="D142" s="5"/>
@@ -3582,7 +3582,7 @@
       <c r="B143" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="20" t="s">
         <v>138</v>
       </c>
       <c r="D143" s="5"/>
@@ -3595,7 +3595,7 @@
       <c r="B144" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="20" t="s">
         <v>139</v>
       </c>
       <c r="D144" s="5"/>
@@ -3608,7 +3608,7 @@
       <c r="B145" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="20" t="s">
         <v>140</v>
       </c>
       <c r="D145" s="5"/>
@@ -3621,7 +3621,7 @@
       <c r="B146" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="20" t="s">
         <v>141</v>
       </c>
       <c r="D146" s="5"/>
@@ -3634,7 +3634,7 @@
       <c r="B147" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="20" t="s">
         <v>142</v>
       </c>
       <c r="D147" s="5"/>
@@ -3647,7 +3647,7 @@
       <c r="B148" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C148" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D148" s="5"/>
@@ -3660,7 +3660,7 @@
       <c r="B149" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="20" t="s">
         <v>144</v>
       </c>
       <c r="D149" s="5"/>
@@ -3673,7 +3673,7 @@
       <c r="B150" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C150" s="20" t="s">
         <v>145</v>
       </c>
       <c r="D150" s="5"/>
@@ -3686,7 +3686,7 @@
       <c r="B151" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C151" s="20" t="s">
         <v>146</v>
       </c>
       <c r="D151" s="5"/>
@@ -3699,7 +3699,7 @@
       <c r="B152" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C152" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D152" s="5"/>
@@ -3712,7 +3712,7 @@
       <c r="B153" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="20" t="s">
         <v>148</v>
       </c>
       <c r="D153" s="5"/>
@@ -3725,7 +3725,7 @@
       <c r="B154" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C154" s="20" t="s">
         <v>149</v>
       </c>
       <c r="D154" s="5"/>
@@ -3738,7 +3738,7 @@
       <c r="B155" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C155" s="20" t="s">
         <v>150</v>
       </c>
       <c r="D155" s="5"/>
@@ -3751,7 +3751,7 @@
       <c r="B156" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C156" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D156" s="5"/>
@@ -3764,7 +3764,7 @@
       <c r="B157" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="20" t="s">
         <v>152</v>
       </c>
       <c r="D157" s="5"/>
@@ -3777,7 +3777,7 @@
       <c r="B158" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="20" t="s">
         <v>153</v>
       </c>
       <c r="D158" s="5"/>
@@ -3790,7 +3790,7 @@
       <c r="B159" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="20" t="s">
         <v>154</v>
       </c>
       <c r="D159" s="5"/>
@@ -3803,7 +3803,7 @@
       <c r="B160" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C160" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D160" s="5"/>
@@ -3816,7 +3816,7 @@
       <c r="B161" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D161" s="5"/>
@@ -3829,7 +3829,7 @@
       <c r="B162" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C162" s="19" t="s">
+      <c r="C162" s="20" t="s">
         <v>157</v>
       </c>
       <c r="D162" s="5"/>
@@ -3842,7 +3842,7 @@
       <c r="B163" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="20" t="s">
         <v>158</v>
       </c>
       <c r="D163" s="5"/>
@@ -3855,7 +3855,7 @@
       <c r="B164" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D164" s="5"/>
@@ -3868,7 +3868,7 @@
       <c r="B165" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D165" s="5"/>
@@ -3881,7 +3881,7 @@
       <c r="B166" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="20" t="s">
         <v>161</v>
       </c>
       <c r="D166" s="5"/>
@@ -3894,7 +3894,7 @@
       <c r="B167" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="20" t="s">
         <v>162</v>
       </c>
       <c r="D167" s="5"/>
@@ -3907,7 +3907,7 @@
       <c r="B168" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C168" s="19" t="s">
+      <c r="C168" s="20" t="s">
         <v>163</v>
       </c>
       <c r="D168" s="5"/>
@@ -3920,7 +3920,7 @@
       <c r="B169" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C169" s="19" t="s">
+      <c r="C169" s="20" t="s">
         <v>164</v>
       </c>
       <c r="D169" s="5"/>
@@ -3933,7 +3933,7 @@
       <c r="B170" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="20" t="s">
         <v>165</v>
       </c>
       <c r="D170" s="5"/>
@@ -3946,7 +3946,7 @@
       <c r="B171" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="20" t="s">
         <v>166</v>
       </c>
       <c r="D171" s="5"/>
@@ -3959,7 +3959,7 @@
       <c r="B172" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="19" t="s">
+      <c r="C172" s="20" t="s">
         <v>167</v>
       </c>
       <c r="D172" s="5"/>
@@ -3972,7 +3972,7 @@
       <c r="B173" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="20" t="s">
         <v>168</v>
       </c>
       <c r="D173" s="5"/>
@@ -3985,7 +3985,7 @@
       <c r="B174" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D174" s="5"/>
@@ -4001,7 +4001,7 @@
         <f aca="false">A175 + 1</f>
         <v>171</v>
       </c>
-      <c r="C176" s="20"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,7 +4012,7 @@
       <c r="B177" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="20" t="s">
         <v>171</v>
       </c>
       <c r="D177" s="5"/>
@@ -4025,7 +4025,7 @@
       <c r="B178" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="20" t="s">
         <v>172</v>
       </c>
       <c r="D178" s="5"/>
@@ -4038,7 +4038,7 @@
       <c r="B179" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C179" s="19" t="s">
+      <c r="C179" s="20" t="s">
         <v>173</v>
       </c>
       <c r="D179" s="5"/>
@@ -4051,7 +4051,7 @@
       <c r="B180" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C180" s="19" t="s">
+      <c r="C180" s="20" t="s">
         <v>174</v>
       </c>
       <c r="D180" s="5"/>
@@ -4064,7 +4064,7 @@
       <c r="B181" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C181" s="20" t="s">
         <v>175</v>
       </c>
       <c r="D181" s="5"/>
@@ -4077,7 +4077,7 @@
       <c r="B182" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C182" s="19" t="s">
+      <c r="C182" s="20" t="s">
         <v>176</v>
       </c>
       <c r="D182" s="5"/>
@@ -4090,7 +4090,7 @@
       <c r="B183" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="20" t="s">
         <v>177</v>
       </c>
       <c r="D183" s="5"/>
@@ -4103,7 +4103,7 @@
       <c r="B184" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C184" s="19" t="s">
+      <c r="C184" s="20" t="s">
         <v>178</v>
       </c>
       <c r="D184" s="5"/>
@@ -4116,7 +4116,7 @@
       <c r="B185" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="20" t="s">
         <v>179</v>
       </c>
       <c r="D185" s="5"/>
@@ -4129,7 +4129,7 @@
       <c r="B186" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C186" s="19" t="s">
+      <c r="C186" s="20" t="s">
         <v>180</v>
       </c>
       <c r="D186" s="5"/>
@@ -4142,7 +4142,7 @@
       <c r="B187" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C187" s="19" t="s">
+      <c r="C187" s="20" t="s">
         <v>181</v>
       </c>
       <c r="D187" s="5"/>
@@ -4155,7 +4155,7 @@
       <c r="B188" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C188" s="19" t="s">
+      <c r="C188" s="20" t="s">
         <v>182</v>
       </c>
       <c r="D188" s="5"/>
@@ -4168,7 +4168,7 @@
       <c r="B189" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="19" t="s">
+      <c r="C189" s="20" t="s">
         <v>183</v>
       </c>
       <c r="D189" s="5"/>
@@ -4181,7 +4181,7 @@
       <c r="B190" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C190" s="19" t="s">
+      <c r="C190" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D190" s="5"/>
@@ -4194,7 +4194,7 @@
       <c r="B191" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D191" s="5"/>
@@ -4207,7 +4207,7 @@
       <c r="B192" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C192" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D192" s="5"/>
@@ -4220,7 +4220,7 @@
       <c r="B193" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C193" s="19" t="s">
+      <c r="C193" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D193" s="5"/>
@@ -4233,7 +4233,7 @@
       <c r="B194" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C194" s="19" t="s">
+      <c r="C194" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D194" s="5"/>
@@ -4246,7 +4246,7 @@
       <c r="B195" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D195" s="5"/>
@@ -4259,7 +4259,7 @@
       <c r="B196" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C196" s="19" t="s">
+      <c r="C196" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D196" s="5"/>
@@ -4272,7 +4272,7 @@
       <c r="B197" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C197" s="19" t="s">
+      <c r="C197" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D197" s="5"/>
@@ -4285,7 +4285,7 @@
       <c r="B198" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C198" s="19" t="s">
+      <c r="C198" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D198" s="5"/>
@@ -4298,7 +4298,7 @@
       <c r="B199" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C199" s="20" t="s">
         <v>193</v>
       </c>
       <c r="D199" s="5"/>
@@ -4311,7 +4311,7 @@
       <c r="B200" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C200" s="19" t="s">
+      <c r="C200" s="20" t="s">
         <v>194</v>
       </c>
       <c r="D200" s="5"/>
@@ -4324,7 +4324,7 @@
       <c r="B201" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D201" s="5"/>
@@ -4337,7 +4337,7 @@
       <c r="B202" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="20" t="s">
         <v>196</v>
       </c>
       <c r="D202" s="5"/>
@@ -4350,7 +4350,7 @@
       <c r="B203" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C203" s="20" t="s">
         <v>197</v>
       </c>
       <c r="D203" s="5"/>
@@ -4363,7 +4363,7 @@
       <c r="B204" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C204" s="20" t="s">
         <v>198</v>
       </c>
       <c r="D204" s="5"/>
@@ -4376,7 +4376,7 @@
       <c r="B205" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="20" t="s">
         <v>199</v>
       </c>
       <c r="D205" s="5"/>
@@ -4389,7 +4389,7 @@
       <c r="B206" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C206" s="19" t="s">
+      <c r="C206" s="20" t="s">
         <v>200</v>
       </c>
       <c r="D206" s="5"/>
@@ -4402,7 +4402,7 @@
       <c r="B207" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C207" s="19" t="s">
+      <c r="C207" s="20" t="s">
         <v>201</v>
       </c>
       <c r="D207" s="5"/>
@@ -4415,7 +4415,7 @@
       <c r="B208" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="20" t="s">
         <v>202</v>
       </c>
       <c r="D208" s="5"/>
@@ -4428,7 +4428,7 @@
       <c r="B209" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C209" s="19" t="s">
+      <c r="C209" s="20" t="s">
         <v>203</v>
       </c>
       <c r="D209" s="5"/>
@@ -4441,7 +4441,7 @@
       <c r="B210" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C210" s="19" t="s">
+      <c r="C210" s="20" t="s">
         <v>204</v>
       </c>
       <c r="D210" s="5"/>
@@ -4454,7 +4454,7 @@
       <c r="B211" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C211" s="19" t="s">
+      <c r="C211" s="20" t="s">
         <v>205</v>
       </c>
       <c r="D211" s="5"/>
@@ -4465,7 +4465,7 @@
         <v>207</v>
       </c>
       <c r="B212" s="15"/>
-      <c r="C212" s="20"/>
+      <c r="C212" s="19"/>
       <c r="D212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +4474,7 @@
         <v>208</v>
       </c>
       <c r="B213" s="15"/>
-      <c r="C213" s="20"/>
+      <c r="C213" s="19"/>
       <c r="D213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4485,7 @@
       <c r="B214" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C214" s="19" t="s">
+      <c r="C214" s="20" t="s">
         <v>207</v>
       </c>
       <c r="D214" s="5"/>
@@ -4498,7 +4498,7 @@
       <c r="B215" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C215" s="19" t="s">
+      <c r="C215" s="20" t="s">
         <v>208</v>
       </c>
       <c r="D215" s="5"/>
@@ -4511,7 +4511,7 @@
       <c r="B216" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C216" s="19" t="s">
+      <c r="C216" s="20" t="s">
         <v>209</v>
       </c>
       <c r="D216" s="5"/>
@@ -4524,7 +4524,7 @@
       <c r="B217" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C217" s="19" t="s">
+      <c r="C217" s="20" t="s">
         <v>210</v>
       </c>
       <c r="D217" s="5"/>
@@ -4537,7 +4537,7 @@
       <c r="B218" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C218" s="19" t="s">
+      <c r="C218" s="20" t="s">
         <v>211</v>
       </c>
       <c r="D218" s="5"/>
@@ -4550,7 +4550,7 @@
       <c r="B219" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C219" s="19" t="s">
+      <c r="C219" s="20" t="s">
         <v>212</v>
       </c>
       <c r="D219" s="5"/>
@@ -4576,7 +4576,7 @@
       <c r="B221" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C221" s="19" t="s">
+      <c r="C221" s="20" t="s">
         <v>214</v>
       </c>
       <c r="D221" s="5"/>
@@ -4589,7 +4589,7 @@
       <c r="B222" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C222" s="19" t="s">
+      <c r="C222" s="20" t="s">
         <v>215</v>
       </c>
       <c r="D222" s="5"/>
@@ -4602,7 +4602,7 @@
       <c r="B223" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C223" s="19" t="s">
+      <c r="C223" s="20" t="s">
         <v>216</v>
       </c>
       <c r="D223" s="5"/>
@@ -4615,7 +4615,7 @@
       <c r="B224" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C224" s="19" t="s">
+      <c r="C224" s="20" t="s">
         <v>217</v>
       </c>
       <c r="D224" s="5"/>
@@ -4628,7 +4628,7 @@
       <c r="B225" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C225" s="19" t="s">
+      <c r="C225" s="20" t="s">
         <v>218</v>
       </c>
       <c r="D225" s="5"/>
@@ -4641,7 +4641,7 @@
       <c r="B226" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C226" s="19" t="s">
+      <c r="C226" s="20" t="s">
         <v>219</v>
       </c>
       <c r="D226" s="5"/>
@@ -4654,7 +4654,7 @@
       <c r="B227" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C227" s="19" t="s">
+      <c r="C227" s="20" t="s">
         <v>220</v>
       </c>
       <c r="D227" s="5"/>
@@ -4667,7 +4667,7 @@
       <c r="B228" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C228" s="19" t="s">
+      <c r="C228" s="20" t="s">
         <v>221</v>
       </c>
       <c r="D228" s="5"/>
@@ -4680,7 +4680,7 @@
       <c r="B229" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C229" s="19" t="s">
+      <c r="C229" s="20" t="s">
         <v>222</v>
       </c>
       <c r="D229" s="5"/>
@@ -4693,7 +4693,7 @@
       <c r="B230" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C230" s="19" t="s">
+      <c r="C230" s="20" t="s">
         <v>223</v>
       </c>
       <c r="D230" s="5"/>
@@ -4706,7 +4706,7 @@
       <c r="B231" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C231" s="19" t="s">
+      <c r="C231" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D231" s="5"/>
@@ -4719,7 +4719,7 @@
       <c r="B232" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C232" s="19" t="s">
+      <c r="C232" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D232" s="5"/>
@@ -4732,7 +4732,7 @@
       <c r="B233" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C233" s="19" t="s">
+      <c r="C233" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D233" s="5"/>
@@ -4745,7 +4745,7 @@
       <c r="B234" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C234" s="19" t="s">
+      <c r="C234" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D234" s="5"/>
@@ -4758,7 +4758,7 @@
       <c r="B235" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C235" s="19" t="s">
+      <c r="C235" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D235" s="5"/>
@@ -4768,7 +4768,7 @@
         <f aca="false">A235 + 1</f>
         <v>231</v>
       </c>
-      <c r="C236" s="20"/>
+      <c r="C236" s="19"/>
       <c r="D236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4776,7 @@
         <f aca="false">A236 + 1</f>
         <v>232</v>
       </c>
-      <c r="C237" s="20"/>
+      <c r="C237" s="19"/>
       <c r="D237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4787,7 @@
       <c r="B238" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C238" s="19" t="s">
+      <c r="C238" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D238" s="5"/>
@@ -4800,7 +4800,7 @@
       <c r="B239" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C239" s="19" t="s">
+      <c r="C239" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D239" s="5"/>
@@ -4813,7 +4813,7 @@
       <c r="B240" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C240" s="19" t="s">
+      <c r="C240" s="20" t="s">
         <v>232</v>
       </c>
       <c r="D240" s="5"/>
@@ -4826,7 +4826,7 @@
       <c r="B241" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C241" s="19" t="s">
+      <c r="C241" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D241" s="5"/>
@@ -4839,7 +4839,7 @@
       <c r="B242" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C242" s="19" t="s">
+      <c r="C242" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D242" s="5"/>
@@ -4852,7 +4852,7 @@
       <c r="B243" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C243" s="19" t="s">
+      <c r="C243" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D243" s="5"/>
@@ -4865,7 +4865,7 @@
       <c r="B244" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C244" s="19" t="s">
+      <c r="C244" s="20" t="s">
         <v>236</v>
       </c>
       <c r="D244" s="5"/>
@@ -4878,7 +4878,7 @@
       <c r="B245" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C245" s="19" t="s">
+      <c r="C245" s="20" t="s">
         <v>237</v>
       </c>
       <c r="D245" s="5"/>
@@ -4891,7 +4891,7 @@
       <c r="B246" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C246" s="19" t="s">
+      <c r="C246" s="20" t="s">
         <v>238</v>
       </c>
       <c r="D246" s="5"/>
@@ -4904,7 +4904,7 @@
       <c r="B247" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C247" s="19" t="s">
+      <c r="C247" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D247" s="5"/>
@@ -4917,7 +4917,7 @@
       <c r="B248" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C248" s="19" t="s">
+      <c r="C248" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D248" s="5"/>
@@ -4930,7 +4930,7 @@
       <c r="B249" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="C249" s="20" t="s">
         <v>241</v>
       </c>
       <c r="D249" s="5"/>
@@ -4943,7 +4943,7 @@
       <c r="B250" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C250" s="19" t="s">
+      <c r="C250" s="20" t="s">
         <v>242</v>
       </c>
       <c r="D250" s="5"/>
@@ -4956,7 +4956,7 @@
       <c r="B251" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C251" s="19" t="s">
+      <c r="C251" s="20" t="s">
         <v>243</v>
       </c>
       <c r="D251" s="5"/>
@@ -4969,7 +4969,7 @@
       <c r="B252" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C252" s="19" t="s">
+      <c r="C252" s="20" t="s">
         <v>244</v>
       </c>
       <c r="D252" s="5"/>
@@ -4982,7 +4982,7 @@
       <c r="B253" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C253" s="19" t="s">
+      <c r="C253" s="20" t="s">
         <v>245</v>
       </c>
       <c r="D253" s="5"/>
@@ -4995,7 +4995,7 @@
       <c r="B254" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C254" s="19" t="s">
+      <c r="C254" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D254" s="5"/>
@@ -5008,7 +5008,7 @@
       <c r="B255" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C255" s="19" t="s">
+      <c r="C255" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D255" s="5"/>
@@ -5021,7 +5021,7 @@
       <c r="B256" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C256" s="19" t="s">
+      <c r="C256" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D256" s="5"/>
@@ -5034,7 +5034,7 @@
       <c r="B257" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C257" s="19" t="s">
+      <c r="C257" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D257" s="5"/>
@@ -5047,7 +5047,7 @@
       <c r="B258" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C258" s="19" t="s">
+      <c r="C258" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D258" s="5"/>
@@ -5060,7 +5060,7 @@
       <c r="B259" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C259" s="19" t="s">
+      <c r="C259" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D259" s="5"/>
@@ -5073,7 +5073,7 @@
       <c r="B260" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C260" s="19" t="s">
+      <c r="C260" s="20" t="s">
         <v>252</v>
       </c>
       <c r="D260" s="5"/>
@@ -5086,7 +5086,7 @@
       <c r="B261" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C261" s="19" t="s">
+      <c r="C261" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D261" s="5"/>
@@ -5099,7 +5099,7 @@
       <c r="B262" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C262" s="19" t="s">
+      <c r="C262" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D262" s="5"/>
@@ -5112,7 +5112,7 @@
       <c r="B263" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C263" s="19" t="s">
+      <c r="C263" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D263" s="5"/>
@@ -5125,7 +5125,7 @@
       <c r="B264" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C264" s="19" t="s">
+      <c r="C264" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D264" s="5"/>
@@ -5138,7 +5138,7 @@
       <c r="B265" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C265" s="19" t="s">
+      <c r="C265" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D265" s="5"/>
@@ -5151,7 +5151,7 @@
       <c r="B266" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C266" s="19" t="s">
+      <c r="C266" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D266" s="5"/>
@@ -5164,7 +5164,7 @@
       <c r="B267" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C267" s="19" t="s">
+      <c r="C267" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D267" s="5"/>
@@ -5177,7 +5177,7 @@
       <c r="B268" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C268" s="19" t="s">
+      <c r="C268" s="20" t="s">
         <v>260</v>
       </c>
       <c r="D268" s="5"/>
@@ -5190,7 +5190,7 @@
       <c r="B269" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C269" s="19" t="s">
+      <c r="C269" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D269" s="5"/>
@@ -5203,7 +5203,7 @@
       <c r="B270" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C270" s="19" t="s">
+      <c r="C270" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D270" s="5"/>
@@ -5216,7 +5216,7 @@
       <c r="B271" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C271" s="19" t="s">
+      <c r="C271" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D271" s="5"/>
@@ -5229,7 +5229,7 @@
       <c r="B272" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C272" s="19" t="s">
+      <c r="C272" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D272" s="5"/>
@@ -5239,7 +5239,7 @@
         <f aca="false">A272 + 1</f>
         <v>268</v>
       </c>
-      <c r="C273" s="20"/>
+      <c r="C273" s="19"/>
       <c r="D273" s="5"/>
     </row>
     <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,7 +5247,7 @@
         <f aca="false">A273 + 1</f>
         <v>269</v>
       </c>
-      <c r="C274" s="20"/>
+      <c r="C274" s="19"/>
       <c r="D274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,7 +5258,7 @@
       <c r="B275" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C275" s="19" t="s">
+      <c r="C275" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D275" s="5"/>
@@ -5271,7 +5271,7 @@
       <c r="B276" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C276" s="19" t="s">
+      <c r="C276" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D276" s="5"/>
@@ -5284,7 +5284,7 @@
       <c r="B277" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C277" s="19" t="s">
+      <c r="C277" s="20" t="s">
         <v>267</v>
       </c>
       <c r="D277" s="5"/>
@@ -5297,7 +5297,7 @@
       <c r="B278" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C278" s="19" t="s">
+      <c r="C278" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D278" s="5"/>
@@ -5310,7 +5310,7 @@
       <c r="B279" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C279" s="19" t="s">
+      <c r="C279" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D279" s="5"/>
@@ -5323,7 +5323,7 @@
       <c r="B280" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C280" s="19" t="s">
+      <c r="C280" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D280" s="5"/>
@@ -5336,7 +5336,7 @@
       <c r="B281" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C281" s="19" t="s">
+      <c r="C281" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D281" s="5"/>
@@ -5349,7 +5349,7 @@
       <c r="B282" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C282" s="19" t="s">
+      <c r="C282" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D282" s="5"/>
@@ -5362,7 +5362,7 @@
       <c r="B283" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C283" s="19" t="s">
+      <c r="C283" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D283" s="5"/>
@@ -5375,7 +5375,7 @@
       <c r="B284" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C284" s="19" t="s">
+      <c r="C284" s="20" t="s">
         <v>274</v>
       </c>
       <c r="D284" s="5"/>
@@ -5388,7 +5388,7 @@
       <c r="B285" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C285" s="19" t="s">
+      <c r="C285" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D285" s="5"/>
@@ -5401,7 +5401,7 @@
       <c r="B286" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C286" s="19" t="s">
+      <c r="C286" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D286" s="5"/>
@@ -5414,7 +5414,7 @@
       <c r="B287" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C287" s="19" t="s">
+      <c r="C287" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D287" s="5"/>
@@ -5427,7 +5427,7 @@
       <c r="B288" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C288" s="19" t="s">
+      <c r="C288" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D288" s="5"/>
@@ -5440,7 +5440,7 @@
       <c r="B289" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C289" s="19" t="s">
+      <c r="C289" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D289" s="5"/>
@@ -5453,7 +5453,7 @@
       <c r="B290" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C290" s="19" t="s">
+      <c r="C290" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D290" s="5"/>
@@ -5466,7 +5466,7 @@
       <c r="B291" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C291" s="19" t="s">
+      <c r="C291" s="20" t="s">
         <v>281</v>
       </c>
       <c r="D291" s="5"/>
@@ -5479,7 +5479,7 @@
       <c r="B292" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C292" s="19" t="s">
+      <c r="C292" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D292" s="5"/>
@@ -5492,7 +5492,7 @@
       <c r="B293" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C293" s="19" t="s">
+      <c r="C293" s="20" t="s">
         <v>283</v>
       </c>
       <c r="D293" s="5"/>
@@ -5502,7 +5502,7 @@
         <f aca="false">A293 + 1</f>
         <v>289</v>
       </c>
-      <c r="C294" s="20"/>
+      <c r="C294" s="19"/>
       <c r="D294" s="5"/>
     </row>
     <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,7 +5510,7 @@
         <f aca="false">A294 + 1</f>
         <v>290</v>
       </c>
-      <c r="C295" s="20"/>
+      <c r="C295" s="19"/>
       <c r="D295" s="5"/>
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,7 +5521,7 @@
       <c r="B296" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C296" s="19" t="s">
+      <c r="C296" s="20" t="s">
         <v>285</v>
       </c>
       <c r="D296" s="5"/>
@@ -5534,7 +5534,7 @@
       <c r="B297" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C297" s="19" t="s">
+      <c r="C297" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D297" s="5"/>
@@ -5547,7 +5547,7 @@
       <c r="B298" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C298" s="19" t="s">
+      <c r="C298" s="20" t="s">
         <v>287</v>
       </c>
       <c r="D298" s="5"/>
@@ -5560,7 +5560,7 @@
       <c r="B299" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C299" s="19" t="s">
+      <c r="C299" s="20" t="s">
         <v>288</v>
       </c>
       <c r="D299" s="5"/>
@@ -5573,7 +5573,7 @@
       <c r="B300" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C300" s="19" t="s">
+      <c r="C300" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D300" s="5"/>
@@ -5586,7 +5586,7 @@
       <c r="B301" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C301" s="19" t="s">
+      <c r="C301" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D301" s="5"/>
@@ -5599,7 +5599,7 @@
       <c r="B302" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C302" s="19" t="s">
+      <c r="C302" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D302" s="5"/>
@@ -5612,7 +5612,7 @@
       <c r="B303" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C303" s="19" t="s">
+      <c r="C303" s="20" t="s">
         <v>292</v>
       </c>
       <c r="D303" s="5"/>
@@ -5625,7 +5625,7 @@
       <c r="B304" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C304" s="19" t="s">
+      <c r="C304" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D304" s="5"/>
@@ -5638,7 +5638,7 @@
       <c r="B305" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C305" s="19" t="s">
+      <c r="C305" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D305" s="5"/>
@@ -5651,7 +5651,7 @@
       <c r="B306" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C306" s="19" t="s">
+      <c r="C306" s="20" t="s">
         <v>295</v>
       </c>
       <c r="D306" s="5"/>
@@ -5664,7 +5664,7 @@
       <c r="B307" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C307" s="19" t="s">
+      <c r="C307" s="20" t="s">
         <v>296</v>
       </c>
       <c r="D307" s="5"/>
@@ -5677,7 +5677,7 @@
       <c r="B308" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C308" s="19" t="s">
+      <c r="C308" s="20" t="s">
         <v>297</v>
       </c>
       <c r="D308" s="5"/>
@@ -5703,7 +5703,7 @@
       <c r="B310" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C310" s="19" t="s">
+      <c r="C310" s="20" t="s">
         <v>299</v>
       </c>
       <c r="D310" s="5"/>
@@ -5716,7 +5716,7 @@
       <c r="B311" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C311" s="19" t="s">
+      <c r="C311" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D311" s="5"/>
@@ -5729,7 +5729,7 @@
       <c r="B312" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C312" s="19" t="s">
+      <c r="C312" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D312" s="5"/>
@@ -5742,7 +5742,7 @@
       <c r="B313" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C313" s="19" t="s">
+      <c r="C313" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D313" s="5"/>
@@ -5755,7 +5755,7 @@
       <c r="B314" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C314" s="19" t="s">
+      <c r="C314" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D314" s="5"/>
@@ -5768,7 +5768,7 @@
       <c r="B315" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C315" s="19" t="s">
+      <c r="C315" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D315" s="5"/>
@@ -5781,7 +5781,7 @@
       <c r="B316" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C316" s="19" t="s">
+      <c r="C316" s="20" t="s">
         <v>305</v>
       </c>
       <c r="D316" s="5"/>
@@ -5794,7 +5794,7 @@
       <c r="B317" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C317" s="19" t="s">
+      <c r="C317" s="20" t="s">
         <v>306</v>
       </c>
       <c r="D317" s="5"/>
@@ -5807,7 +5807,7 @@
       <c r="B318" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C318" s="19" t="s">
+      <c r="C318" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D318" s="5"/>
@@ -5820,7 +5820,7 @@
       <c r="B319" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C319" s="19" t="s">
+      <c r="C319" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D319" s="5"/>
@@ -5833,7 +5833,7 @@
       <c r="B320" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C320" s="19" t="s">
+      <c r="C320" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D320" s="5"/>
@@ -5846,7 +5846,7 @@
       <c r="B321" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C321" s="19" t="s">
+      <c r="C321" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D321" s="5"/>
@@ -5859,7 +5859,7 @@
       <c r="B322" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C322" s="19" t="s">
+      <c r="C322" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D322" s="5"/>
@@ -5872,7 +5872,7 @@
       <c r="B323" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C323" s="19" t="s">
+      <c r="C323" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D323" s="5"/>
@@ -5885,7 +5885,7 @@
       <c r="B324" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C324" s="19" t="s">
+      <c r="C324" s="20" t="s">
         <v>313</v>
       </c>
       <c r="D324" s="5"/>
@@ -5898,7 +5898,7 @@
       <c r="B325" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C325" s="19" t="s">
+      <c r="C325" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D325" s="5"/>
@@ -5911,7 +5911,7 @@
       <c r="B326" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C326" s="19" t="s">
+      <c r="C326" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D326" s="5"/>
@@ -5924,7 +5924,7 @@
       <c r="B327" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C327" s="19" t="s">
+      <c r="C327" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D327" s="5"/>
@@ -5937,7 +5937,7 @@
       <c r="B328" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C328" s="19" t="s">
+      <c r="C328" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D328" s="5"/>
@@ -5950,7 +5950,7 @@
       <c r="B329" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="C329" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D329" s="5"/>
@@ -5963,7 +5963,7 @@
       <c r="B330" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C330" s="19" t="s">
+      <c r="C330" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D330" s="5"/>
@@ -5976,7 +5976,7 @@
       <c r="B331" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C331" s="19" t="s">
+      <c r="C331" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D331" s="5"/>
@@ -5989,7 +5989,7 @@
       <c r="B332" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C332" s="19" t="s">
+      <c r="C332" s="20" t="s">
         <v>321</v>
       </c>
       <c r="D332" s="5"/>
@@ -6002,7 +6002,7 @@
       <c r="B333" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C333" s="19" t="s">
+      <c r="C333" s="20" t="s">
         <v>322</v>
       </c>
       <c r="D333" s="5"/>
@@ -6012,7 +6012,7 @@
         <f aca="false">A333 + 1</f>
         <v>329</v>
       </c>
-      <c r="C334" s="20"/>
+      <c r="C334" s="19"/>
       <c r="D334" s="5"/>
     </row>
     <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,7 +6020,7 @@
         <f aca="false">A334 + 1</f>
         <v>330</v>
       </c>
-      <c r="C335" s="20"/>
+      <c r="C335" s="19"/>
       <c r="D335" s="5"/>
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,7 +6031,7 @@
       <c r="B336" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C336" s="19" t="s">
+      <c r="C336" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D336" s="5"/>
@@ -6044,7 +6044,7 @@
       <c r="B337" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C337" s="19" t="s">
+      <c r="C337" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D337" s="5"/>
@@ -6057,7 +6057,7 @@
       <c r="B338" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C338" s="19" t="s">
+      <c r="C338" s="20" t="s">
         <v>326</v>
       </c>
       <c r="D338" s="5"/>
@@ -6070,7 +6070,7 @@
       <c r="B339" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C339" s="19" t="s">
+      <c r="C339" s="20" t="s">
         <v>327</v>
       </c>
       <c r="D339" s="5"/>
@@ -6083,7 +6083,7 @@
       <c r="B340" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C340" s="19" t="s">
+      <c r="C340" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D340" s="5"/>
@@ -6096,7 +6096,7 @@
       <c r="B341" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C341" s="19" t="s">
+      <c r="C341" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D341" s="5"/>
@@ -6109,7 +6109,7 @@
       <c r="B342" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C342" s="19" t="s">
+      <c r="C342" s="20" t="s">
         <v>330</v>
       </c>
       <c r="D342" s="5"/>
@@ -6122,7 +6122,7 @@
       <c r="B343" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C343" s="19" t="s">
+      <c r="C343" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D343" s="5"/>
@@ -6148,7 +6148,7 @@
       <c r="B345" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C345" s="19" t="s">
+      <c r="C345" s="20" t="s">
         <v>333</v>
       </c>
       <c r="D345" s="5"/>
@@ -6161,7 +6161,7 @@
       <c r="B346" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C346" s="19" t="s">
+      <c r="C346" s="20" t="s">
         <v>334</v>
       </c>
       <c r="D346" s="5"/>
@@ -6174,7 +6174,7 @@
       <c r="B347" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C347" s="19" t="s">
+      <c r="C347" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D347" s="5"/>
@@ -6187,7 +6187,7 @@
       <c r="B348" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C348" s="19" t="s">
+      <c r="C348" s="20" t="s">
         <v>336</v>
       </c>
       <c r="D348" s="5"/>
@@ -6200,7 +6200,7 @@
       <c r="B349" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C349" s="19" t="s">
+      <c r="C349" s="20" t="s">
         <v>337</v>
       </c>
       <c r="D349" s="5"/>
@@ -6213,7 +6213,7 @@
       <c r="B350" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C350" s="19" t="s">
+      <c r="C350" s="20" t="s">
         <v>338</v>
       </c>
       <c r="D350" s="5"/>
@@ -6226,7 +6226,7 @@
       <c r="B351" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C351" s="19" t="s">
+      <c r="C351" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D351" s="5"/>
@@ -6239,7 +6239,7 @@
       <c r="B352" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C352" s="19" t="s">
+      <c r="C352" s="20" t="s">
         <v>340</v>
       </c>
       <c r="D352" s="5"/>
@@ -6252,7 +6252,7 @@
       <c r="B353" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C353" s="19" t="s">
+      <c r="C353" s="20" t="s">
         <v>341</v>
       </c>
       <c r="D353" s="5"/>
@@ -6262,7 +6262,7 @@
         <f aca="false">A353 + 1</f>
         <v>349</v>
       </c>
-      <c r="C354" s="20"/>
+      <c r="C354" s="19"/>
       <c r="D354" s="5"/>
     </row>
     <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,7 +6270,7 @@
         <f aca="false">A354 + 1</f>
         <v>350</v>
       </c>
-      <c r="C355" s="20"/>
+      <c r="C355" s="19"/>
       <c r="D355" s="5"/>
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,7 +6281,7 @@
       <c r="B356" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C356" s="19" t="s">
+      <c r="C356" s="20" t="s">
         <v>343</v>
       </c>
       <c r="D356" s="5"/>
@@ -6294,7 +6294,7 @@
       <c r="B357" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C357" s="19" t="s">
+      <c r="C357" s="20" t="s">
         <v>344</v>
       </c>
       <c r="D357" s="5"/>
@@ -6307,7 +6307,7 @@
       <c r="B358" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C358" s="19" t="s">
+      <c r="C358" s="20" t="s">
         <v>345</v>
       </c>
       <c r="D358" s="5"/>
@@ -6320,7 +6320,7 @@
       <c r="B359" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C359" s="19" t="s">
+      <c r="C359" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D359" s="5"/>
@@ -6333,7 +6333,7 @@
       <c r="B360" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C360" s="19" t="s">
+      <c r="C360" s="20" t="s">
         <v>347</v>
       </c>
       <c r="D360" s="5"/>
@@ -6346,7 +6346,7 @@
       <c r="B361" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C361" s="19" t="s">
+      <c r="C361" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D361" s="5"/>
@@ -6359,7 +6359,7 @@
       <c r="B362" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C362" s="19" t="s">
+      <c r="C362" s="20" t="s">
         <v>349</v>
       </c>
       <c r="D362" s="5"/>
@@ -6372,7 +6372,7 @@
       <c r="B363" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C363" s="19" t="s">
+      <c r="C363" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D363" s="5"/>
@@ -6385,7 +6385,7 @@
       <c r="B364" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C364" s="19" t="s">
+      <c r="C364" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D364" s="5"/>
@@ -6398,7 +6398,7 @@
       <c r="B365" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C365" s="19" t="s">
+      <c r="C365" s="20" t="s">
         <v>352</v>
       </c>
       <c r="D365" s="5"/>
@@ -6411,7 +6411,7 @@
       <c r="B366" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C366" s="19" t="s">
+      <c r="C366" s="20" t="s">
         <v>353</v>
       </c>
       <c r="D366" s="5"/>
@@ -6424,7 +6424,7 @@
       <c r="B367" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C367" s="19" t="s">
+      <c r="C367" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D367" s="5"/>
@@ -6437,7 +6437,7 @@
       <c r="B368" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C368" s="19" t="s">
+      <c r="C368" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D368" s="5"/>
@@ -6450,7 +6450,7 @@
       <c r="B369" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C369" s="19" t="s">
+      <c r="C369" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D369" s="5"/>
@@ -6463,7 +6463,7 @@
       <c r="B370" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C370" s="19" t="s">
+      <c r="C370" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D370" s="5"/>
@@ -6476,7 +6476,7 @@
       <c r="B371" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C371" s="19" t="s">
+      <c r="C371" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D371" s="5"/>
@@ -6489,7 +6489,7 @@
       <c r="B372" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C372" s="19" t="s">
+      <c r="C372" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D372" s="5"/>
@@ -6502,7 +6502,7 @@
       <c r="B373" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C373" s="19" t="s">
+      <c r="C373" s="20" t="s">
         <v>360</v>
       </c>
       <c r="D373" s="5"/>
@@ -6515,7 +6515,7 @@
       <c r="B374" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C374" s="19" t="s">
+      <c r="C374" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D374" s="5"/>
@@ -6528,7 +6528,7 @@
       <c r="B375" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C375" s="19" t="s">
+      <c r="C375" s="20" t="s">
         <v>362</v>
       </c>
       <c r="D375" s="5"/>
@@ -6541,7 +6541,7 @@
       <c r="B376" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C376" s="19" t="s">
+      <c r="C376" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D376" s="5"/>
@@ -6554,7 +6554,7 @@
       <c r="B377" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C377" s="19" t="s">
+      <c r="C377" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D377" s="5"/>
@@ -6567,7 +6567,7 @@
       <c r="B378" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C378" s="19" t="s">
+      <c r="C378" s="20" t="s">
         <v>365</v>
       </c>
       <c r="D378" s="5"/>
@@ -6580,7 +6580,7 @@
       <c r="B379" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C379" s="19" t="s">
+      <c r="C379" s="20" t="s">
         <v>366</v>
       </c>
       <c r="D379" s="5"/>
@@ -6593,7 +6593,7 @@
       <c r="B380" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C380" s="19" t="s">
+      <c r="C380" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D380" s="5"/>
@@ -6606,7 +6606,7 @@
       <c r="B381" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C381" s="19" t="s">
+      <c r="C381" s="20" t="s">
         <v>368</v>
       </c>
       <c r="D381" s="5"/>
@@ -6619,7 +6619,7 @@
       <c r="B382" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C382" s="19" t="s">
+      <c r="C382" s="20" t="s">
         <v>369</v>
       </c>
       <c r="D382" s="5"/>
@@ -6632,7 +6632,7 @@
       <c r="B383" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C383" s="19" t="s">
+      <c r="C383" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D383" s="5"/>
@@ -6645,7 +6645,7 @@
       <c r="B384" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C384" s="19" t="s">
+      <c r="C384" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D384" s="5"/>
@@ -6658,7 +6658,7 @@
       <c r="B385" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C385" s="19" t="s">
+      <c r="C385" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D385" s="5"/>
@@ -6671,7 +6671,7 @@
       <c r="B386" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C386" s="19" t="s">
+      <c r="C386" s="20" t="s">
         <v>373</v>
       </c>
       <c r="D386" s="5"/>
@@ -6684,7 +6684,7 @@
       <c r="B387" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C387" s="19" t="s">
+      <c r="C387" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D387" s="5"/>
@@ -6697,7 +6697,7 @@
       <c r="B388" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C388" s="19" t="s">
+      <c r="C388" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D388" s="5"/>
@@ -6710,7 +6710,7 @@
       <c r="B389" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C389" s="19" t="s">
+      <c r="C389" s="20" t="s">
         <v>376</v>
       </c>
       <c r="D389" s="5"/>
@@ -6723,7 +6723,7 @@
       <c r="B390" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C390" s="19" t="s">
+      <c r="C390" s="20" t="s">
         <v>376</v>
       </c>
       <c r="D390" s="5"/>
@@ -6736,7 +6736,7 @@
       <c r="B391" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C391" s="19" t="s">
+      <c r="C391" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D391" s="5"/>
@@ -6749,7 +6749,7 @@
       <c r="B392" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C392" s="19" t="s">
+      <c r="C392" s="20" t="s">
         <v>378</v>
       </c>
       <c r="D392" s="5"/>
@@ -6762,7 +6762,7 @@
       <c r="B393" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C393" s="19" t="s">
+      <c r="C393" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D393" s="5"/>
@@ -6775,7 +6775,7 @@
       <c r="B394" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C394" s="19" t="s">
+      <c r="C394" s="20" t="s">
         <v>380</v>
       </c>
       <c r="D394" s="5"/>
@@ -6788,7 +6788,7 @@
       <c r="B395" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C395" s="19" t="s">
+      <c r="C395" s="20" t="s">
         <v>381</v>
       </c>
       <c r="D395" s="5"/>
@@ -6801,7 +6801,7 @@
       <c r="B396" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C396" s="19" t="s">
+      <c r="C396" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D396" s="5"/>
@@ -6814,7 +6814,7 @@
       <c r="B397" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C397" s="19" t="s">
+      <c r="C397" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D397" s="5"/>
@@ -6827,7 +6827,7 @@
       <c r="B398" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C398" s="19" t="s">
+      <c r="C398" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D398" s="5"/>
@@ -6840,7 +6840,7 @@
       <c r="B399" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C399" s="19" t="s">
+      <c r="C399" s="20" t="s">
         <v>385</v>
       </c>
       <c r="D399" s="5"/>
@@ -6850,7 +6850,7 @@
         <f aca="false">A399 + 1</f>
         <v>395</v>
       </c>
-      <c r="C400" s="20"/>
+      <c r="C400" s="19"/>
       <c r="D400" s="5"/>
     </row>
     <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,7 +6858,7 @@
         <f aca="false">A400 + 1</f>
         <v>396</v>
       </c>
-      <c r="C401" s="20"/>
+      <c r="C401" s="19"/>
       <c r="D401" s="5"/>
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,7 +6869,7 @@
       <c r="B402" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C402" s="19" t="s">
+      <c r="C402" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D402" s="5"/>
@@ -6882,7 +6882,7 @@
       <c r="B403" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C403" s="19" t="s">
+      <c r="C403" s="20" t="s">
         <v>388</v>
       </c>
       <c r="D403" s="5"/>
@@ -6895,7 +6895,7 @@
       <c r="B404" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C404" s="19" t="s">
+      <c r="C404" s="20" t="s">
         <v>389</v>
       </c>
       <c r="D404" s="5"/>
@@ -6908,7 +6908,7 @@
       <c r="B405" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C405" s="19" t="s">
+      <c r="C405" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D405" s="5"/>
@@ -6921,7 +6921,7 @@
       <c r="B406" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C406" s="19" t="s">
+      <c r="C406" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D406" s="5"/>
@@ -6934,7 +6934,7 @@
       <c r="B407" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C407" s="19" t="s">
+      <c r="C407" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D407" s="5"/>
@@ -6944,7 +6944,7 @@
         <f aca="false">A407 + 1</f>
         <v>403</v>
       </c>
-      <c r="C408" s="20"/>
+      <c r="C408" s="19"/>
       <c r="D408" s="5"/>
     </row>
     <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,7 +6952,7 @@
         <f aca="false">A408 + 1</f>
         <v>404</v>
       </c>
-      <c r="C409" s="20"/>
+      <c r="C409" s="19"/>
       <c r="D409" s="5"/>
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,7 +6963,7 @@
       <c r="B410" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C410" s="19" t="s">
+      <c r="C410" s="20" t="s">
         <v>393</v>
       </c>
       <c r="D410" s="5"/>
@@ -6976,7 +6976,7 @@
       <c r="B411" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C411" s="19" t="s">
+      <c r="C411" s="20" t="s">
         <v>394</v>
       </c>
       <c r="D411" s="5"/>
@@ -6989,7 +6989,7 @@
       <c r="B412" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C412" s="19" t="s">
+      <c r="C412" s="20" t="s">
         <v>395</v>
       </c>
       <c r="D412" s="5"/>
@@ -7002,7 +7002,7 @@
       <c r="B413" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C413" s="19" t="s">
+      <c r="C413" s="20" t="s">
         <v>396</v>
       </c>
       <c r="D413" s="5"/>
@@ -7015,7 +7015,7 @@
       <c r="B414" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C414" s="19" t="s">
+      <c r="C414" s="20" t="s">
         <v>397</v>
       </c>
       <c r="D414" s="5"/>
@@ -7028,7 +7028,7 @@
       <c r="B415" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C415" s="19" t="s">
+      <c r="C415" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D415" s="5"/>
@@ -7041,7 +7041,7 @@
       <c r="B416" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C416" s="19" t="s">
+      <c r="C416" s="20" t="s">
         <v>399</v>
       </c>
       <c r="D416" s="5"/>
@@ -7054,7 +7054,7 @@
       <c r="B417" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C417" s="19" t="s">
+      <c r="C417" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D417" s="5"/>
@@ -7067,7 +7067,7 @@
       <c r="B418" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C418" s="19" t="s">
+      <c r="C418" s="20" t="s">
         <v>400</v>
       </c>
       <c r="D418" s="5"/>
@@ -7080,7 +7080,7 @@
       <c r="B419" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C419" s="19" t="s">
+      <c r="C419" s="20" t="s">
         <v>401</v>
       </c>
       <c r="D419" s="5"/>
@@ -7093,7 +7093,7 @@
       <c r="B420" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C420" s="19" t="s">
+      <c r="C420" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D420" s="5"/>
@@ -7106,7 +7106,7 @@
       <c r="B421" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C421" s="19" t="s">
+      <c r="C421" s="20" t="s">
         <v>403</v>
       </c>
       <c r="D421" s="5"/>
@@ -7119,7 +7119,7 @@
       <c r="B422" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C422" s="19" t="s">
+      <c r="C422" s="20" t="s">
         <v>404</v>
       </c>
       <c r="D422" s="5"/>
@@ -7132,7 +7132,7 @@
       <c r="B423" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C423" s="19" t="s">
+      <c r="C423" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D423" s="5"/>
@@ -7145,7 +7145,7 @@
       <c r="B424" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C424" s="19" t="s">
+      <c r="C424" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D424" s="5"/>
@@ -7158,7 +7158,7 @@
       <c r="B425" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C425" s="19" t="s">
+      <c r="C425" s="20" t="s">
         <v>407</v>
       </c>
       <c r="D425" s="5"/>
@@ -7171,7 +7171,7 @@
       <c r="B426" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C426" s="19" t="s">
+      <c r="C426" s="20" t="s">
         <v>408</v>
       </c>
       <c r="D426" s="5"/>
@@ -7184,7 +7184,7 @@
       <c r="B427" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C427" s="19" t="s">
+      <c r="C427" s="20" t="s">
         <v>409</v>
       </c>
       <c r="D427" s="5"/>
@@ -7197,7 +7197,7 @@
       <c r="B428" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C428" s="19" t="s">
+      <c r="C428" s="20" t="s">
         <v>410</v>
       </c>
       <c r="D428" s="5"/>
@@ -7210,7 +7210,7 @@
       <c r="B429" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C429" s="19" t="s">
+      <c r="C429" s="20" t="s">
         <v>411</v>
       </c>
       <c r="D429" s="5"/>
@@ -7223,7 +7223,7 @@
       <c r="B430" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C430" s="19" t="s">
+      <c r="C430" s="20" t="s">
         <v>412</v>
       </c>
       <c r="D430" s="5"/>
@@ -7236,7 +7236,7 @@
       <c r="B431" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C431" s="19" t="s">
+      <c r="C431" s="20" t="s">
         <v>413</v>
       </c>
       <c r="D431" s="5"/>
@@ -7249,7 +7249,7 @@
       <c r="B432" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C432" s="19" t="s">
+      <c r="C432" s="20" t="s">
         <v>414</v>
       </c>
       <c r="D432" s="5"/>
@@ -7262,7 +7262,7 @@
       <c r="B433" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C433" s="19" t="s">
+      <c r="C433" s="20" t="s">
         <v>415</v>
       </c>
       <c r="D433" s="5"/>
@@ -7275,7 +7275,7 @@
       <c r="B434" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C434" s="19" t="s">
+      <c r="C434" s="20" t="s">
         <v>416</v>
       </c>
       <c r="D434" s="5"/>
@@ -7288,7 +7288,7 @@
       <c r="B435" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C435" s="19" t="s">
+      <c r="C435" s="20" t="s">
         <v>417</v>
       </c>
       <c r="D435" s="5"/>
@@ -7301,7 +7301,7 @@
       <c r="B436" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C436" s="19" t="s">
+      <c r="C436" s="20" t="s">
         <v>418</v>
       </c>
       <c r="D436" s="5"/>
@@ -7314,7 +7314,7 @@
       <c r="B437" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C437" s="19" t="s">
+      <c r="C437" s="20" t="s">
         <v>419</v>
       </c>
       <c r="D437" s="5"/>
@@ -7327,7 +7327,7 @@
       <c r="B438" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C438" s="19" t="s">
+      <c r="C438" s="20" t="s">
         <v>420</v>
       </c>
       <c r="D438" s="5"/>
@@ -7340,7 +7340,7 @@
       <c r="B439" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C439" s="19" t="s">
+      <c r="C439" s="20" t="s">
         <v>421</v>
       </c>
       <c r="D439" s="5"/>
@@ -7353,7 +7353,7 @@
       <c r="B440" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C440" s="19" t="s">
+      <c r="C440" s="20" t="s">
         <v>422</v>
       </c>
       <c r="D440" s="5"/>
@@ -7366,7 +7366,7 @@
       <c r="B441" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C441" s="19" t="s">
+      <c r="C441" s="20" t="s">
         <v>423</v>
       </c>
       <c r="D441" s="5"/>
@@ -7379,7 +7379,7 @@
       <c r="B442" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C442" s="19" t="s">
+      <c r="C442" s="20" t="s">
         <v>424</v>
       </c>
       <c r="D442" s="5"/>
@@ -7392,7 +7392,7 @@
       <c r="B443" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C443" s="19" t="s">
+      <c r="C443" s="20" t="s">
         <v>425</v>
       </c>
       <c r="D443" s="5"/>
@@ -7405,7 +7405,7 @@
       <c r="B444" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C444" s="19" t="s">
+      <c r="C444" s="20" t="s">
         <v>426</v>
       </c>
       <c r="D444" s="5"/>
@@ -7418,7 +7418,7 @@
       <c r="B445" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C445" s="19" t="s">
+      <c r="C445" s="20" t="s">
         <v>427</v>
       </c>
       <c r="D445" s="5"/>
@@ -7431,7 +7431,7 @@
       <c r="B446" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C446" s="19" t="s">
+      <c r="C446" s="20" t="s">
         <v>428</v>
       </c>
       <c r="D446" s="5"/>
@@ -7444,7 +7444,7 @@
       <c r="B447" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C447" s="19" t="s">
+      <c r="C447" s="20" t="s">
         <v>429</v>
       </c>
       <c r="D447" s="5"/>
@@ -7457,7 +7457,7 @@
       <c r="B448" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C448" s="19" t="s">
+      <c r="C448" s="20" t="s">
         <v>430</v>
       </c>
       <c r="D448" s="5"/>
@@ -7470,7 +7470,7 @@
       <c r="B449" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C449" s="19" t="s">
+      <c r="C449" s="20" t="s">
         <v>431</v>
       </c>
       <c r="D449" s="5"/>
@@ -7483,7 +7483,7 @@
       <c r="B450" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C450" s="19" t="s">
+      <c r="C450" s="20" t="s">
         <v>432</v>
       </c>
       <c r="D450" s="5"/>
@@ -7496,7 +7496,7 @@
       <c r="B451" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C451" s="19" t="s">
+      <c r="C451" s="20" t="s">
         <v>433</v>
       </c>
       <c r="D451" s="5"/>
@@ -7509,7 +7509,7 @@
       <c r="B452" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C452" s="19" t="s">
+      <c r="C452" s="20" t="s">
         <v>434</v>
       </c>
       <c r="D452" s="5"/>
@@ -7522,7 +7522,7 @@
       <c r="B453" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C453" s="19" t="s">
+      <c r="C453" s="20" t="s">
         <v>435</v>
       </c>
       <c r="D453" s="5"/>
@@ -7535,7 +7535,7 @@
       <c r="B454" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C454" s="19" t="s">
+      <c r="C454" s="20" t="s">
         <v>436</v>
       </c>
       <c r="D454" s="5"/>
@@ -7548,7 +7548,7 @@
       <c r="B455" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C455" s="19" t="s">
+      <c r="C455" s="20" t="s">
         <v>437</v>
       </c>
       <c r="D455" s="5"/>
@@ -7561,7 +7561,7 @@
       <c r="B456" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C456" s="19" t="s">
+      <c r="C456" s="20" t="s">
         <v>438</v>
       </c>
       <c r="D456" s="5"/>
@@ -7574,7 +7574,7 @@
       <c r="B457" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C457" s="19" t="s">
+      <c r="C457" s="20" t="s">
         <v>439</v>
       </c>
       <c r="D457" s="5"/>
@@ -7587,7 +7587,7 @@
       <c r="B458" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C458" s="19" t="s">
+      <c r="C458" s="20" t="s">
         <v>440</v>
       </c>
       <c r="D458" s="5"/>
@@ -7600,7 +7600,7 @@
       <c r="B459" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C459" s="19" t="s">
+      <c r="C459" s="20" t="s">
         <v>441</v>
       </c>
       <c r="D459" s="5"/>
@@ -7613,7 +7613,7 @@
       <c r="B460" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C460" s="19" t="s">
+      <c r="C460" s="20" t="s">
         <v>442</v>
       </c>
       <c r="D460" s="5"/>
@@ -7626,7 +7626,7 @@
       <c r="B461" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C461" s="19" t="s">
+      <c r="C461" s="20" t="s">
         <v>443</v>
       </c>
       <c r="D461" s="5"/>
@@ -7639,7 +7639,7 @@
       <c r="B462" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C462" s="19" t="s">
+      <c r="C462" s="20" t="s">
         <v>444</v>
       </c>
       <c r="D462" s="5"/>
@@ -7652,7 +7652,7 @@
       <c r="B463" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C463" s="19" t="s">
+      <c r="C463" s="20" t="s">
         <v>445</v>
       </c>
       <c r="D463" s="5"/>
@@ -7665,7 +7665,7 @@
       <c r="B464" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C464" s="19" t="s">
+      <c r="C464" s="20" t="s">
         <v>446</v>
       </c>
       <c r="D464" s="5"/>
@@ -7678,7 +7678,7 @@
       <c r="B465" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C465" s="19" t="s">
+      <c r="C465" s="20" t="s">
         <v>447</v>
       </c>
       <c r="D465" s="5"/>
@@ -7691,7 +7691,7 @@
       <c r="B466" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C466" s="19" t="s">
+      <c r="C466" s="20" t="s">
         <v>448</v>
       </c>
       <c r="D466" s="5"/>
@@ -7704,7 +7704,7 @@
       <c r="B467" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C467" s="19" t="s">
+      <c r="C467" s="20" t="s">
         <v>449</v>
       </c>
       <c r="D467" s="5"/>
@@ -7717,7 +7717,7 @@
       <c r="B468" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C468" s="19" t="s">
+      <c r="C468" s="20" t="s">
         <v>450</v>
       </c>
       <c r="D468" s="5"/>
@@ -7730,7 +7730,7 @@
       <c r="B469" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C469" s="19" t="s">
+      <c r="C469" s="20" t="s">
         <v>451</v>
       </c>
       <c r="D469" s="5"/>
@@ -7740,7 +7740,7 @@
         <f aca="false">A469 + 1</f>
         <v>465</v>
       </c>
-      <c r="C470" s="20"/>
+      <c r="C470" s="19"/>
       <c r="D470" s="5"/>
     </row>
     <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,7 +7749,7 @@
         <v>466</v>
       </c>
       <c r="B471" s="15"/>
-      <c r="C471" s="20"/>
+      <c r="C471" s="19"/>
       <c r="D471" s="5"/>
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7760,7 +7760,7 @@
       <c r="B472" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C472" s="19" t="s">
+      <c r="C472" s="20" t="s">
         <v>453</v>
       </c>
       <c r="D472" s="5"/>
@@ -7773,7 +7773,7 @@
       <c r="B473" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C473" s="19" t="s">
+      <c r="C473" s="20" t="s">
         <v>454</v>
       </c>
       <c r="D473" s="5"/>
@@ -7786,7 +7786,7 @@
       <c r="B474" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C474" s="19" t="s">
+      <c r="C474" s="20" t="s">
         <v>455</v>
       </c>
       <c r="D474" s="5"/>
@@ -7799,7 +7799,7 @@
       <c r="B475" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C475" s="19" t="s">
+      <c r="C475" s="20" t="s">
         <v>456</v>
       </c>
       <c r="D475" s="5"/>
@@ -7812,7 +7812,7 @@
       <c r="B476" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C476" s="19" t="s">
+      <c r="C476" s="20" t="s">
         <v>457</v>
       </c>
       <c r="D476" s="5"/>
@@ -7825,7 +7825,7 @@
       <c r="B477" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C477" s="19" t="s">
+      <c r="C477" s="20" t="s">
         <v>458</v>
       </c>
       <c r="D477" s="5"/>
@@ -7838,7 +7838,7 @@
       <c r="B478" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C478" s="19" t="s">
+      <c r="C478" s="20" t="s">
         <v>459</v>
       </c>
       <c r="D478" s="5"/>
@@ -7851,7 +7851,7 @@
       <c r="B479" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C479" s="19" t="s">
+      <c r="C479" s="20" t="s">
         <v>460</v>
       </c>
       <c r="D479" s="5"/>
@@ -7864,7 +7864,7 @@
       <c r="B480" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C480" s="19" t="s">
+      <c r="C480" s="20" t="s">
         <v>461</v>
       </c>
       <c r="D480" s="5"/>
@@ -7877,7 +7877,7 @@
       <c r="B481" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C481" s="19" t="s">
+      <c r="C481" s="20" t="s">
         <v>462</v>
       </c>
       <c r="D481" s="5"/>
@@ -7919,7 +7919,7 @@
     <hyperlink ref="C37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
     <hyperlink ref="C38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
     <hyperlink ref="C39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="C40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="C40" r:id="rId36" location=":~:text=Method%201%20(Simply%20count%20while,n%20in%20the%20merged%20array." display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="C41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
     <hyperlink ref="C44" r:id="rId38" display="Spiral traversal on a Matrix"/>
     <hyperlink ref="C45" r:id="rId39" display="Search an element in a matriix"/>
